--- a/examples/extract_book_info/model_comparison_results_4public.xlsx
+++ b/examples/extract_book_info/model_comparison_results_4public.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stas\NextCloud\GitHub\HomeLibraryAI\examples\extract_book_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62FF190-BFA6-4B75-BDEA-D96FF5E56AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79CF67B-9039-40A7-BDF3-957B3132D2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="299">
   <si>
     <t>page1</t>
   </si>
@@ -937,6 +937,9 @@
   </si>
   <si>
     <t>model</t>
+  </si>
+  <si>
+    <t>isbn</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1059,14 +1062,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1074,7 +1074,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1097,9 +1097,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1125,8 +1122,8 @@
   <colors>
     <mruColors>
       <color rgb="FFF8696B"/>
+      <color rgb="FF63BE7B"/>
       <color rgb="FF99CC00"/>
-      <color rgb="FF63BE7B"/>
       <color rgb="FFFFCCCC"/>
     </mruColors>
   </colors>
@@ -1426,1375 +1423,1492 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5403F85C-2BFC-47E7-A6C7-566BA4A0C256}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="3" max="3" width="8.54296875" customWidth="1"/>
     <col min="4" max="4" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.90625" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7">
         <f>title!E2</f>
         <v>2</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <f>authors!E2</f>
         <v>3</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <f>authors_full_names!E2</f>
         <v>3</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <f>pages!E2</f>
         <v>3</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <f>publisher!E2</f>
         <v>2</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <f>year!E2</f>
         <v>3</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
+        <f>isbn!E2</f>
+        <v>3</v>
+      </c>
+      <c r="I2" s="7">
         <f>annotation!E2</f>
         <v>3</v>
       </c>
-      <c r="I2" s="8">
+      <c r="J2" s="7">
         <f>brief!E2</f>
         <v>3</v>
       </c>
-      <c r="J2" s="8">
-        <f>SUM(B2:I2)</f>
-        <v>22</v>
-      </c>
-      <c r="K2" s="11">
+      <c r="K2" s="7">
+        <f>SUM(B2:J2)</f>
+        <v>25</v>
+      </c>
+      <c r="L2" s="10">
         <v>11.693256083429896</v>
       </c>
-      <c r="L2" s="8">
+      <c r="M2" s="7">
         <v>18.68</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="21">
         <f>title!E3</f>
         <v>3</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="21">
         <f>authors!E3</f>
         <v>3</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="21">
         <f>authors_full_names!E3</f>
         <v>3</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="21">
         <f>pages!E3</f>
         <v>3</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="21">
         <f>publisher!E3</f>
         <v>3</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="21">
         <f>year!E3</f>
         <v>3</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="21">
+        <f>isbn!E3</f>
+        <v>3</v>
+      </c>
+      <c r="I3" s="21">
         <f>annotation!E3</f>
         <v>3</v>
       </c>
-      <c r="I3" s="23">
+      <c r="J3" s="21">
         <f>brief!E3</f>
         <v>3</v>
       </c>
-      <c r="J3" s="8">
-        <f t="shared" ref="J3:J29" si="0">SUM(B3:I3)</f>
-        <v>24</v>
-      </c>
-      <c r="K3" s="12">
+      <c r="K3" s="7">
+        <f t="shared" ref="K3:K29" si="0">SUM(B3:J3)</f>
+        <v>27</v>
+      </c>
+      <c r="L3" s="11">
         <v>575.59675550405564</v>
       </c>
-      <c r="L3" s="13">
+      <c r="M3" s="12">
         <v>48.99</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <f>title!E4</f>
         <v>3</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <f>authors!E4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <f>authors_full_names!E4</f>
         <v>3</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <f>pages!E4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <f>publisher!E4</f>
         <v>1</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <f>year!E4</f>
         <v>3</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
+        <f>isbn!E4</f>
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
         <f>annotation!E4</f>
         <v>3</v>
       </c>
-      <c r="I4" s="8">
+      <c r="J4" s="7">
         <f>brief!E4</f>
         <v>3</v>
       </c>
-      <c r="J4" s="8">
+      <c r="K4" s="7">
         <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="L4" s="10">
+        <v>111.6431054461182</v>
+      </c>
+      <c r="M4" s="7">
+        <v>32.590000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <f>title!E5</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="21">
+        <f>authors!E5</f>
+        <v>3</v>
+      </c>
+      <c r="D5" s="21">
+        <f>authors_full_names!E5</f>
+        <v>3</v>
+      </c>
+      <c r="E5" s="21">
+        <f>pages!E5</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="21">
+        <f>publisher!E5</f>
+        <v>3</v>
+      </c>
+      <c r="G5" s="21">
+        <f>year!E5</f>
+        <v>3</v>
+      </c>
+      <c r="H5" s="21">
+        <f>isbn!E5</f>
+        <v>3</v>
+      </c>
+      <c r="I5" s="21">
+        <f>annotation!E5</f>
+        <v>3</v>
+      </c>
+      <c r="J5" s="21">
+        <f>brief!E5</f>
+        <v>3</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="L5" s="11">
+        <v>115.04982618771727</v>
+      </c>
+      <c r="M5" s="12">
+        <v>46.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="21">
+        <f>title!E6</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="21">
+        <f>authors!E6</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="21">
+        <f>authors_full_names!E6</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="21">
+        <f>pages!E6</f>
+        <v>3</v>
+      </c>
+      <c r="F6" s="21">
+        <f>publisher!E6</f>
+        <v>3</v>
+      </c>
+      <c r="G6" s="21">
+        <f>year!E6</f>
+        <v>3</v>
+      </c>
+      <c r="H6" s="21">
+        <f>isbn!E6</f>
+        <v>3</v>
+      </c>
+      <c r="I6" s="21">
+        <f>annotation!E6</f>
+        <v>3</v>
+      </c>
+      <c r="J6" s="21">
+        <f>brief!E6</f>
+        <v>3</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="L6" s="11">
+        <v>154.04866743916571</v>
+      </c>
+      <c r="M6" s="12">
+        <v>38.82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <f>title!E7</f>
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <f>authors!E7</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <f>authors_full_names!E7</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="7">
+        <f>pages!E7</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <f>publisher!E7</f>
+        <v>3</v>
+      </c>
+      <c r="G7" s="7">
+        <f>year!E7</f>
+        <v>3</v>
+      </c>
+      <c r="H7" s="7">
+        <f>isbn!E7</f>
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <f>annotation!E7</f>
+        <v>3</v>
+      </c>
+      <c r="J7" s="7">
+        <f>brief!E7</f>
+        <v>3</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="L7" s="10">
+        <v>234.20625724217845</v>
+      </c>
+      <c r="M7" s="7">
+        <v>68.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="18">
+        <f>title!E8</f>
+        <v>3</v>
+      </c>
+      <c r="C8" s="18">
+        <f>authors!E8</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="18">
+        <f>authors_full_names!E8</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="18">
+        <f>pages!E8</f>
+        <v>3</v>
+      </c>
+      <c r="F8" s="18">
+        <f>publisher!E8</f>
+        <v>3</v>
+      </c>
+      <c r="G8" s="18">
+        <f>year!E8</f>
+        <v>3</v>
+      </c>
+      <c r="H8" s="18">
+        <f>isbn!E8</f>
+        <v>3</v>
+      </c>
+      <c r="I8" s="18">
+        <f>annotation!E8</f>
+        <v>3</v>
+      </c>
+      <c r="J8" s="18">
+        <f>brief!E8</f>
+        <v>3</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="L8" s="13">
+        <v>5.5873696407879487</v>
+      </c>
+      <c r="M8" s="14">
+        <v>18.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
+        <f>title!E9</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <f>authors!E9</f>
+        <v>3</v>
+      </c>
+      <c r="D9" s="7">
+        <f>authors_full_names!E9</f>
+        <v>3</v>
+      </c>
+      <c r="E9" s="7">
+        <f>pages!E9</f>
+        <v>3</v>
+      </c>
+      <c r="F9" s="7">
+        <f>publisher!E9</f>
+        <v>3</v>
+      </c>
+      <c r="G9" s="7">
+        <f>year!E9</f>
+        <v>3</v>
+      </c>
+      <c r="H9" s="7">
+        <f>isbn!E9</f>
+        <v>3</v>
+      </c>
+      <c r="I9" s="7">
+        <f>annotation!E9</f>
+        <v>3</v>
+      </c>
+      <c r="J9" s="7">
+        <f>brief!E9</f>
+        <v>2</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="L9" s="10">
+        <v>5.4717844727694089</v>
+      </c>
+      <c r="M9" s="7">
+        <v>73.009999999999991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7">
+        <f>title!E10</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="7">
+        <f>authors!E10</f>
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <f>authors_full_names!E10</f>
+        <v>3</v>
+      </c>
+      <c r="E10" s="7">
+        <f>pages!E10</f>
+        <v>3</v>
+      </c>
+      <c r="F10" s="7">
+        <f>publisher!E10</f>
+        <v>3</v>
+      </c>
+      <c r="G10" s="7">
+        <f>year!E10</f>
+        <v>3</v>
+      </c>
+      <c r="H10" s="7">
+        <f>isbn!E10</f>
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <f>annotation!E10</f>
+        <v>3</v>
+      </c>
+      <c r="J10" s="7">
+        <f>brief!E10</f>
+        <v>3</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="L10" s="15">
+        <v>71.738296639629198</v>
+      </c>
+      <c r="M10" s="12">
+        <v>36.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="18">
+        <f>title!E11</f>
+        <v>3</v>
+      </c>
+      <c r="C11" s="18">
+        <f>authors!E11</f>
+        <v>3</v>
+      </c>
+      <c r="D11" s="18">
+        <f>authors_full_names!E11</f>
+        <v>3</v>
+      </c>
+      <c r="E11" s="18">
+        <f>pages!E11</f>
+        <v>3</v>
+      </c>
+      <c r="F11" s="18">
+        <f>publisher!E11</f>
+        <v>3</v>
+      </c>
+      <c r="G11" s="18">
+        <f>year!E11</f>
+        <v>3</v>
+      </c>
+      <c r="H11" s="18">
+        <f>isbn!E11</f>
+        <v>3</v>
+      </c>
+      <c r="I11" s="18">
+        <f>annotation!E11</f>
+        <v>3</v>
+      </c>
+      <c r="J11" s="18">
+        <f>brief!E11</f>
+        <v>3</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="L11" s="13">
+        <v>2.1484936268829666</v>
+      </c>
+      <c r="M11" s="14">
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="12">
+        <f>title!E12</f>
+        <v>3</v>
+      </c>
+      <c r="C12" s="12">
+        <f>authors!E12</f>
+        <v>3</v>
+      </c>
+      <c r="D12" s="12">
+        <f>authors_full_names!E12</f>
+        <v>3</v>
+      </c>
+      <c r="E12" s="12">
+        <f>pages!E12</f>
+        <v>3</v>
+      </c>
+      <c r="F12" s="12">
+        <f>publisher!E12</f>
+        <v>3</v>
+      </c>
+      <c r="G12" s="12">
+        <f>year!E12</f>
+        <v>3</v>
+      </c>
+      <c r="H12" s="12">
+        <f>isbn!E12</f>
+        <v>3</v>
+      </c>
+      <c r="I12" s="12">
+        <f>annotation!E12</f>
+        <v>3</v>
+      </c>
+      <c r="J12" s="12">
+        <f>brief!E12</f>
+        <v>3</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="L12" s="15">
+        <v>40.141946697566631</v>
+      </c>
+      <c r="M12" s="14">
+        <v>23.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="7">
+        <f>title!E13</f>
+        <v>2</v>
+      </c>
+      <c r="C13" s="7">
+        <f>authors!E13</f>
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <f>authors_full_names!E13</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="7">
+        <f>pages!E13</f>
+        <v>3</v>
+      </c>
+      <c r="F13" s="7">
+        <f>publisher!E13</f>
+        <v>2</v>
+      </c>
+      <c r="G13" s="7">
+        <f>year!E13</f>
+        <v>2</v>
+      </c>
+      <c r="H13" s="7">
+        <f>isbn!E13</f>
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <f>annotation!E13</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
+        <f>brief!E13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="L13" s="10">
+        <v>4.1446118192352266</v>
+      </c>
+      <c r="M13" s="7">
+        <v>35.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7">
+        <f>title!E14</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <f>authors!E14</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <f>authors_full_names!E14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <f>pages!E14</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <f>publisher!E14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <f>year!E14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <f>isbn!E14</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <f>annotation!E14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <f>brief!E14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="10">
+        <v>9.2167439165701044</v>
+      </c>
+      <c r="M14" s="7">
+        <v>77.41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="7">
+        <f>title!E15</f>
+        <v>2</v>
+      </c>
+      <c r="C15" s="7">
+        <f>authors!E15</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <f>authors_full_names!E15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <f>pages!E15</f>
+        <v>2</v>
+      </c>
+      <c r="F15" s="7">
+        <f>publisher!E15</f>
+        <v>2</v>
+      </c>
+      <c r="G15" s="7">
+        <f>year!E15</f>
+        <v>2</v>
+      </c>
+      <c r="H15" s="7">
+        <f>isbn!E15</f>
+        <v>3</v>
+      </c>
+      <c r="I15" s="7">
+        <f>annotation!E15</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="7">
+        <f>brief!E15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="L15" s="10">
+        <v>66.805793742757828</v>
+      </c>
+      <c r="M15" s="7">
+        <v>94.58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="7">
+        <f>title!E16</f>
+        <v>2</v>
+      </c>
+      <c r="C16" s="7">
+        <f>authors!E16</f>
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <f>authors_full_names!E16</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <f>pages!E16</f>
+        <v>3</v>
+      </c>
+      <c r="F16" s="7">
+        <f>publisher!E16</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
+        <f>year!E16</f>
+        <v>3</v>
+      </c>
+      <c r="H16" s="7">
+        <f>isbn!E16</f>
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <f>annotation!E16</f>
+        <v>2</v>
+      </c>
+      <c r="J16" s="7">
+        <f>brief!E16</f>
+        <v>3</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="L16" s="10">
+        <v>89.078794901506384</v>
+      </c>
+      <c r="M16" s="7">
+        <v>60.74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="12">
+        <f>title!E17</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="12">
+        <f>authors!E17</f>
+        <v>3</v>
+      </c>
+      <c r="D17" s="12">
+        <f>authors_full_names!E17</f>
+        <v>3</v>
+      </c>
+      <c r="E17" s="12">
+        <f>pages!E17</f>
+        <v>3</v>
+      </c>
+      <c r="F17" s="12">
+        <f>publisher!E17</f>
+        <v>3</v>
+      </c>
+      <c r="G17" s="12">
+        <f>year!E17</f>
+        <v>3</v>
+      </c>
+      <c r="H17" s="12">
+        <f>isbn!E17</f>
+        <v>3</v>
+      </c>
+      <c r="I17" s="12">
+        <f>annotation!E17</f>
+        <v>3</v>
+      </c>
+      <c r="J17" s="12">
+        <f>brief!E17</f>
+        <v>3</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="L17" s="13">
+        <v>9.6674391657010421</v>
+      </c>
+      <c r="M17" s="12">
+        <v>52.79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="7">
+        <f>title!E18</f>
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <f>authors!E18</f>
+        <v>3</v>
+      </c>
+      <c r="D18" s="7">
+        <f>authors_full_names!E18</f>
+        <v>3</v>
+      </c>
+      <c r="E18" s="7">
+        <f>pages!E18</f>
+        <v>3</v>
+      </c>
+      <c r="F18" s="7">
+        <f>publisher!E18</f>
+        <v>3</v>
+      </c>
+      <c r="G18" s="7">
+        <f>year!E18</f>
+        <v>3</v>
+      </c>
+      <c r="H18" s="7">
+        <f>isbn!E18</f>
+        <v>3</v>
+      </c>
+      <c r="I18" s="7">
+        <f>annotation!E18</f>
+        <v>3</v>
+      </c>
+      <c r="J18" s="7">
+        <f>brief!E18</f>
+        <v>2</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="L18" s="10">
+        <v>7.6008111239860954</v>
+      </c>
+      <c r="M18" s="7">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="11">
-        <v>111.6431054461182</v>
-      </c>
-      <c r="L4" s="8">
-        <v>32.590000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="23">
-        <f>title!E5</f>
-        <v>3</v>
-      </c>
-      <c r="C5" s="23">
-        <f>authors!E5</f>
-        <v>3</v>
-      </c>
-      <c r="D5" s="23">
-        <f>authors_full_names!E5</f>
-        <v>3</v>
-      </c>
-      <c r="E5" s="23">
-        <f>pages!E5</f>
-        <v>3</v>
-      </c>
-      <c r="F5" s="23">
-        <f>publisher!E5</f>
-        <v>3</v>
-      </c>
-      <c r="G5" s="23">
-        <f>year!E5</f>
-        <v>3</v>
-      </c>
-      <c r="H5" s="23">
-        <f>annotation!E5</f>
-        <v>3</v>
-      </c>
-      <c r="I5" s="23">
-        <f>brief!E5</f>
-        <v>3</v>
-      </c>
-      <c r="J5" s="8">
+      <c r="B19" s="7">
+        <f>title!E19</f>
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <f>authors!E19</f>
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
+        <f>authors_full_names!E19</f>
+        <v>2</v>
+      </c>
+      <c r="E19" s="7">
+        <f>pages!E19</f>
+        <v>3</v>
+      </c>
+      <c r="F19" s="7">
+        <f>publisher!E19</f>
+        <v>3</v>
+      </c>
+      <c r="G19" s="7">
+        <f>year!E19</f>
+        <v>3</v>
+      </c>
+      <c r="H19" s="7">
+        <f>isbn!E19</f>
+        <v>3</v>
+      </c>
+      <c r="I19" s="7">
+        <f>annotation!E19</f>
+        <v>2</v>
+      </c>
+      <c r="J19" s="7">
+        <f>brief!E19</f>
+        <v>3</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="L19" s="10">
+        <v>7.3534183082271163</v>
+      </c>
+      <c r="M19" s="7">
+        <v>17.88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="7">
+        <f>title!E20</f>
+        <v>2</v>
+      </c>
+      <c r="C20" s="7">
+        <f>authors!E20</f>
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <f>authors_full_names!E20</f>
+        <v>2</v>
+      </c>
+      <c r="E20" s="7">
+        <f>pages!E20</f>
+        <v>3</v>
+      </c>
+      <c r="F20" s="7">
+        <f>publisher!E20</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
+        <f>year!E20</f>
+        <v>3</v>
+      </c>
+      <c r="H20" s="7">
+        <f>isbn!E20</f>
+        <v>3</v>
+      </c>
+      <c r="I20" s="7">
+        <f>annotation!E20</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="7">
+        <f>brief!E20</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="L20" s="10">
+        <v>15.911008111239862</v>
+      </c>
+      <c r="M20" s="7">
+        <v>19.810000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="7">
+        <f>title!E21</f>
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <f>authors!E21</f>
+        <v>2</v>
+      </c>
+      <c r="D21" s="7">
+        <f>authors_full_names!E21</f>
+        <v>2</v>
+      </c>
+      <c r="E21" s="7">
+        <f>pages!E21</f>
+        <v>3</v>
+      </c>
+      <c r="F21" s="7">
+        <f>publisher!E21</f>
+        <v>2</v>
+      </c>
+      <c r="G21" s="7">
+        <f>year!E21</f>
+        <v>3</v>
+      </c>
+      <c r="H21" s="7">
+        <f>isbn!E21</f>
+        <v>2</v>
+      </c>
+      <c r="I21" s="7">
+        <f>annotation!E21</f>
+        <v>3</v>
+      </c>
+      <c r="J21" s="7">
+        <f>brief!E21</f>
+        <v>3</v>
+      </c>
+      <c r="K21" s="7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="L21" s="10">
+        <v>256.82502896871381</v>
+      </c>
+      <c r="M21" s="7">
+        <v>53.47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="21">
+        <f>title!E22</f>
+        <v>3</v>
+      </c>
+      <c r="C22" s="21">
+        <f>authors!E22</f>
+        <v>3</v>
+      </c>
+      <c r="D22" s="21">
+        <f>authors_full_names!E22</f>
+        <v>3</v>
+      </c>
+      <c r="E22" s="21">
+        <f>pages!E22</f>
+        <v>3</v>
+      </c>
+      <c r="F22" s="21">
+        <f>publisher!E22</f>
+        <v>3</v>
+      </c>
+      <c r="G22" s="21">
+        <f>year!E22</f>
+        <v>3</v>
+      </c>
+      <c r="H22" s="21">
+        <f>isbn!E22</f>
+        <v>3</v>
+      </c>
+      <c r="I22" s="21">
+        <f>annotation!E22</f>
+        <v>3</v>
+      </c>
+      <c r="J22" s="21">
+        <f>brief!E22</f>
+        <v>3</v>
+      </c>
+      <c r="K22" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="L22" s="11">
+        <v>125.53765932792584</v>
+      </c>
+      <c r="M22" s="14">
+        <v>34.22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="12">
+        <f>title!E23</f>
+        <v>3</v>
+      </c>
+      <c r="C23" s="12">
+        <f>authors!E23</f>
+        <v>3</v>
+      </c>
+      <c r="D23" s="12">
+        <f>authors_full_names!E23</f>
+        <v>3</v>
+      </c>
+      <c r="E23" s="12">
+        <f>pages!E23</f>
+        <v>3</v>
+      </c>
+      <c r="F23" s="12">
+        <f>publisher!E23</f>
+        <v>3</v>
+      </c>
+      <c r="G23" s="12">
+        <f>year!E23</f>
+        <v>3</v>
+      </c>
+      <c r="H23" s="12">
+        <f>isbn!E23</f>
+        <v>3</v>
+      </c>
+      <c r="I23" s="12">
+        <f>annotation!E23</f>
+        <v>3</v>
+      </c>
+      <c r="J23" s="12">
+        <f>brief!E23</f>
+        <v>3</v>
+      </c>
+      <c r="K23" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="L23" s="15">
+        <v>67.523174971031295</v>
+      </c>
+      <c r="M23" s="14">
+        <v>30.47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="12">
+        <f>title!E24</f>
+        <v>3</v>
+      </c>
+      <c r="C24" s="12">
+        <f>authors!E24</f>
+        <v>3</v>
+      </c>
+      <c r="D24" s="12">
+        <f>authors_full_names!E24</f>
+        <v>3</v>
+      </c>
+      <c r="E24" s="12">
+        <f>pages!E24</f>
+        <v>3</v>
+      </c>
+      <c r="F24" s="12">
+        <f>publisher!E24</f>
+        <v>3</v>
+      </c>
+      <c r="G24" s="12">
+        <f>year!E24</f>
+        <v>3</v>
+      </c>
+      <c r="H24" s="12">
+        <f>isbn!E24</f>
+        <v>3</v>
+      </c>
+      <c r="I24" s="12">
+        <f>annotation!E24</f>
+        <v>3</v>
+      </c>
+      <c r="J24" s="12">
+        <f>brief!E24</f>
+        <v>3</v>
+      </c>
+      <c r="K24" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="L24" s="15">
+        <v>36.324646581691773</v>
+      </c>
+      <c r="M24" s="14">
+        <v>25.29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="21">
+        <f>title!E25</f>
+        <v>3</v>
+      </c>
+      <c r="C25" s="21">
+        <f>authors!E25</f>
+        <v>3</v>
+      </c>
+      <c r="D25" s="21">
+        <f>authors_full_names!E25</f>
+        <v>3</v>
+      </c>
+      <c r="E25" s="21">
+        <f>pages!E25</f>
+        <v>3</v>
+      </c>
+      <c r="F25" s="21">
+        <f>publisher!E25</f>
+        <v>3</v>
+      </c>
+      <c r="G25" s="21">
+        <f>year!E25</f>
+        <v>3</v>
+      </c>
+      <c r="H25" s="21">
+        <f>isbn!E25</f>
+        <v>3</v>
+      </c>
+      <c r="I25" s="21">
+        <f>annotation!E25</f>
+        <v>3</v>
+      </c>
+      <c r="J25" s="21">
+        <f>brief!E25</f>
+        <v>3</v>
+      </c>
+      <c r="K25" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="L25" s="11">
+        <v>119.70243337195828</v>
+      </c>
+      <c r="M25" s="16">
+        <v>75.650000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="7">
+        <f>title!E26</f>
+        <v>2</v>
+      </c>
+      <c r="C26" s="7">
+        <f>authors!E26</f>
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <f>authors_full_names!E26</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
+        <f>pages!E26</f>
+        <v>2</v>
+      </c>
+      <c r="F26" s="7">
+        <f>publisher!E26</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
+        <f>year!E26</f>
+        <v>3</v>
+      </c>
+      <c r="H26" s="7">
+        <f>isbn!E26</f>
+        <v>3</v>
+      </c>
+      <c r="I26" s="7">
+        <f>annotation!E26</f>
+        <v>2</v>
+      </c>
+      <c r="J26" s="7">
+        <f>brief!E26</f>
+        <v>2</v>
+      </c>
+      <c r="K26" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="L26" s="10">
+        <v>174.54229432213211</v>
+      </c>
+      <c r="M26" s="7">
+        <v>74.53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="7">
+        <f>title!E27</f>
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <f>authors!E27</f>
+        <v>3</v>
+      </c>
+      <c r="D27" s="7">
+        <f>authors_full_names!E27</f>
+        <v>2</v>
+      </c>
+      <c r="E27" s="7">
+        <f>pages!E27</f>
+        <v>3</v>
+      </c>
+      <c r="F27" s="7">
+        <f>publisher!E27</f>
+        <v>3</v>
+      </c>
+      <c r="G27" s="7">
+        <f>year!E27</f>
+        <v>3</v>
+      </c>
+      <c r="H27" s="7">
+        <f>isbn!E27</f>
+        <v>3</v>
+      </c>
+      <c r="I27" s="7">
+        <f>annotation!E27</f>
+        <v>3</v>
+      </c>
+      <c r="J27" s="7">
+        <f>brief!E27</f>
+        <v>3</v>
+      </c>
+      <c r="K27" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="L27" s="10">
+        <v>30.732792584009275</v>
+      </c>
+      <c r="M27" s="7">
+        <v>37.879999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="7">
+        <f>title!E28</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
+        <f>authors!E28</f>
+        <v>3</v>
+      </c>
+      <c r="D28" s="7">
+        <f>authors_full_names!E28</f>
+        <v>3</v>
+      </c>
+      <c r="E28" s="7">
+        <f>pages!E28</f>
+        <v>3</v>
+      </c>
+      <c r="F28" s="7">
+        <f>publisher!E28</f>
+        <v>2</v>
+      </c>
+      <c r="G28" s="7">
+        <f>year!E28</f>
+        <v>3</v>
+      </c>
+      <c r="H28" s="7">
+        <f>isbn!E28</f>
+        <v>2</v>
+      </c>
+      <c r="I28" s="7">
+        <f>annotation!E28</f>
+        <v>2</v>
+      </c>
+      <c r="J28" s="7">
+        <f>brief!E28</f>
+        <v>3</v>
+      </c>
+      <c r="K28" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="K5" s="12">
-        <v>115.04982618771727</v>
-      </c>
-      <c r="L5" s="13">
-        <v>46.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="23">
-        <f>title!E6</f>
-        <v>3</v>
-      </c>
-      <c r="C6" s="23">
-        <f>authors!E6</f>
-        <v>3</v>
-      </c>
-      <c r="D6" s="23">
-        <f>authors_full_names!E6</f>
-        <v>3</v>
-      </c>
-      <c r="E6" s="23">
-        <f>pages!E6</f>
-        <v>3</v>
-      </c>
-      <c r="F6" s="23">
-        <f>publisher!E6</f>
-        <v>3</v>
-      </c>
-      <c r="G6" s="23">
-        <f>year!E6</f>
-        <v>3</v>
-      </c>
-      <c r="H6" s="23">
-        <f>annotation!E6</f>
-        <v>3</v>
-      </c>
-      <c r="I6" s="23">
-        <f>brief!E6</f>
-        <v>3</v>
-      </c>
-      <c r="J6" s="8">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="K6" s="12">
-        <v>154.04866743916571</v>
-      </c>
-      <c r="L6" s="13">
-        <v>38.82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="8">
-        <f>title!E7</f>
-        <v>3</v>
-      </c>
-      <c r="C7" s="8">
-        <f>authors!E7</f>
-        <v>3</v>
-      </c>
-      <c r="D7" s="8">
-        <f>authors_full_names!E7</f>
-        <v>3</v>
-      </c>
-      <c r="E7" s="8">
-        <f>pages!E7</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
-        <f>publisher!E7</f>
-        <v>3</v>
-      </c>
-      <c r="G7" s="8">
-        <f>year!E7</f>
-        <v>3</v>
-      </c>
-      <c r="H7" s="8">
-        <f>annotation!E7</f>
-        <v>3</v>
-      </c>
-      <c r="I7" s="8">
-        <f>brief!E7</f>
-        <v>3</v>
-      </c>
-      <c r="J7" s="8">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="K7" s="11">
-        <v>234.20625724217845</v>
-      </c>
-      <c r="L7" s="8">
-        <v>68.08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="20">
-        <f>title!E8</f>
-        <v>3</v>
-      </c>
-      <c r="C8" s="20">
-        <f>authors!E8</f>
-        <v>3</v>
-      </c>
-      <c r="D8" s="20">
-        <f>authors_full_names!E8</f>
-        <v>3</v>
-      </c>
-      <c r="E8" s="20">
-        <f>pages!E8</f>
-        <v>3</v>
-      </c>
-      <c r="F8" s="20">
-        <f>publisher!E8</f>
-        <v>3</v>
-      </c>
-      <c r="G8" s="20">
-        <f>year!E8</f>
-        <v>3</v>
-      </c>
-      <c r="H8" s="20">
-        <f>annotation!E8</f>
-        <v>3</v>
-      </c>
-      <c r="I8" s="20">
-        <f>brief!E8</f>
-        <v>3</v>
-      </c>
-      <c r="J8" s="8">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="K8" s="14">
-        <v>5.5873696407879487</v>
-      </c>
-      <c r="L8" s="15">
-        <v>18.41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="8">
-        <f>title!E9</f>
-        <v>3</v>
-      </c>
-      <c r="C9" s="8">
-        <f>authors!E9</f>
-        <v>3</v>
-      </c>
-      <c r="D9" s="8">
-        <f>authors_full_names!E9</f>
-        <v>3</v>
-      </c>
-      <c r="E9" s="8">
-        <f>pages!E9</f>
-        <v>3</v>
-      </c>
-      <c r="F9" s="8">
-        <f>publisher!E9</f>
-        <v>3</v>
-      </c>
-      <c r="G9" s="8">
-        <f>year!E9</f>
-        <v>3</v>
-      </c>
-      <c r="H9" s="8">
-        <f>annotation!E9</f>
-        <v>3</v>
-      </c>
-      <c r="I9" s="8">
-        <f>brief!E9</f>
-        <v>2</v>
-      </c>
-      <c r="J9" s="8">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="K9" s="11">
-        <v>5.4717844727694089</v>
-      </c>
-      <c r="L9" s="8">
-        <v>73.009999999999991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="13">
-        <f>title!E10</f>
-        <v>3</v>
-      </c>
-      <c r="C10" s="13">
-        <f>authors!E10</f>
-        <v>3</v>
-      </c>
-      <c r="D10" s="13">
-        <f>authors_full_names!E10</f>
-        <v>3</v>
-      </c>
-      <c r="E10" s="13">
-        <f>pages!E10</f>
-        <v>3</v>
-      </c>
-      <c r="F10" s="13">
-        <f>publisher!E10</f>
-        <v>3</v>
-      </c>
-      <c r="G10" s="13">
-        <f>year!E10</f>
-        <v>3</v>
-      </c>
-      <c r="H10" s="13">
-        <f>annotation!E10</f>
-        <v>3</v>
-      </c>
-      <c r="I10" s="13">
-        <f>brief!E10</f>
-        <v>3</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="K10" s="16">
-        <v>71.738296639629198</v>
-      </c>
-      <c r="L10" s="13">
-        <v>36.08</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="20">
-        <f>title!E11</f>
-        <v>3</v>
-      </c>
-      <c r="C11" s="20">
-        <f>authors!E11</f>
-        <v>3</v>
-      </c>
-      <c r="D11" s="20">
-        <f>authors_full_names!E11</f>
-        <v>3</v>
-      </c>
-      <c r="E11" s="20">
-        <f>pages!E11</f>
-        <v>3</v>
-      </c>
-      <c r="F11" s="20">
-        <f>publisher!E11</f>
-        <v>3</v>
-      </c>
-      <c r="G11" s="20">
-        <f>year!E11</f>
-        <v>3</v>
-      </c>
-      <c r="H11" s="20">
-        <f>annotation!E11</f>
-        <v>3</v>
-      </c>
-      <c r="I11" s="20">
-        <f>brief!E11</f>
-        <v>3</v>
-      </c>
-      <c r="J11" s="8">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="K11" s="14">
-        <v>2.1484936268829666</v>
-      </c>
-      <c r="L11" s="15">
-        <v>16.79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="13">
-        <f>title!E12</f>
-        <v>3</v>
-      </c>
-      <c r="C12" s="13">
-        <f>authors!E12</f>
-        <v>3</v>
-      </c>
-      <c r="D12" s="13">
-        <f>authors_full_names!E12</f>
-        <v>3</v>
-      </c>
-      <c r="E12" s="13">
-        <f>pages!E12</f>
-        <v>3</v>
-      </c>
-      <c r="F12" s="13">
-        <f>publisher!E12</f>
-        <v>3</v>
-      </c>
-      <c r="G12" s="13">
-        <f>year!E12</f>
-        <v>3</v>
-      </c>
-      <c r="H12" s="13">
-        <f>annotation!E12</f>
-        <v>3</v>
-      </c>
-      <c r="I12" s="13">
-        <f>brief!E12</f>
-        <v>3</v>
-      </c>
-      <c r="J12" s="8">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="K12" s="16">
-        <v>40.141946697566631</v>
-      </c>
-      <c r="L12" s="15">
-        <v>23.41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="8">
-        <f>title!E13</f>
-        <v>2</v>
-      </c>
-      <c r="C13" s="8">
-        <f>authors!E13</f>
-        <v>2</v>
-      </c>
-      <c r="D13" s="8">
-        <f>authors_full_names!E13</f>
-        <v>2</v>
-      </c>
-      <c r="E13" s="8">
-        <f>pages!E13</f>
-        <v>3</v>
-      </c>
-      <c r="F13" s="8">
-        <f>publisher!E13</f>
-        <v>2</v>
-      </c>
-      <c r="G13" s="8">
-        <f>year!E13</f>
-        <v>2</v>
-      </c>
-      <c r="H13" s="8">
-        <f>annotation!E13</f>
-        <v>1</v>
-      </c>
-      <c r="I13" s="8">
-        <f>brief!E13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="8">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="K13" s="11">
-        <v>4.1446118192352266</v>
-      </c>
-      <c r="L13" s="8">
-        <v>35.11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="8">
-        <f>title!E14</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="8">
-        <f>authors!E14</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <f>authors_full_names!E14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="8">
-        <f>pages!E14</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <f>publisher!E14</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <f>year!E14</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
-        <f>annotation!E14</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="8">
-        <f>brief!E14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="11">
-        <v>9.2167439165701044</v>
-      </c>
-      <c r="L14" s="8">
-        <v>77.41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="8">
-        <f>title!E15</f>
-        <v>2</v>
-      </c>
-      <c r="C15" s="8">
-        <f>authors!E15</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="8">
-        <f>authors_full_names!E15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <f>pages!E15</f>
-        <v>2</v>
-      </c>
-      <c r="F15" s="8">
-        <f>publisher!E15</f>
-        <v>2</v>
-      </c>
-      <c r="G15" s="8">
-        <f>year!E15</f>
-        <v>2</v>
-      </c>
-      <c r="H15" s="8">
-        <f>annotation!E15</f>
-        <v>1</v>
-      </c>
-      <c r="I15" s="8">
-        <f>brief!E15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K15" s="11">
-        <v>66.805793742757828</v>
-      </c>
-      <c r="L15" s="8">
-        <v>94.58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="8">
-        <f>title!E16</f>
-        <v>2</v>
-      </c>
-      <c r="C16" s="8">
-        <f>authors!E16</f>
-        <v>2</v>
-      </c>
-      <c r="D16" s="8">
-        <f>authors_full_names!E16</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="8">
-        <f>pages!E16</f>
-        <v>3</v>
-      </c>
-      <c r="F16" s="8">
-        <f>publisher!E16</f>
-        <v>1</v>
-      </c>
-      <c r="G16" s="8">
-        <f>year!E16</f>
-        <v>3</v>
-      </c>
-      <c r="H16" s="8">
-        <f>annotation!E16</f>
-        <v>2</v>
-      </c>
-      <c r="I16" s="8">
-        <f>brief!E16</f>
-        <v>3</v>
-      </c>
-      <c r="J16" s="8">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="K16" s="11">
-        <v>89.078794901506384</v>
-      </c>
-      <c r="L16" s="8">
-        <v>60.74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="13">
-        <f>title!E17</f>
-        <v>3</v>
-      </c>
-      <c r="C17" s="13">
-        <f>authors!E17</f>
-        <v>3</v>
-      </c>
-      <c r="D17" s="13">
-        <f>authors_full_names!E17</f>
-        <v>3</v>
-      </c>
-      <c r="E17" s="13">
-        <f>pages!E17</f>
-        <v>3</v>
-      </c>
-      <c r="F17" s="13">
-        <f>publisher!E17</f>
-        <v>3</v>
-      </c>
-      <c r="G17" s="13">
-        <f>year!E17</f>
-        <v>3</v>
-      </c>
-      <c r="H17" s="13">
-        <f>annotation!E17</f>
-        <v>3</v>
-      </c>
-      <c r="I17" s="13">
-        <f>brief!E17</f>
-        <v>3</v>
-      </c>
-      <c r="J17" s="8">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="K17" s="14">
-        <v>9.6674391657010421</v>
-      </c>
-      <c r="L17" s="13">
-        <v>52.79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="8">
-        <f>title!E18</f>
-        <v>3</v>
-      </c>
-      <c r="C18" s="8">
-        <f>authors!E18</f>
-        <v>3</v>
-      </c>
-      <c r="D18" s="8">
-        <f>authors_full_names!E18</f>
-        <v>3</v>
-      </c>
-      <c r="E18" s="8">
-        <f>pages!E18</f>
-        <v>3</v>
-      </c>
-      <c r="F18" s="8">
-        <f>publisher!E18</f>
-        <v>3</v>
-      </c>
-      <c r="G18" s="8">
-        <f>year!E18</f>
-        <v>3</v>
-      </c>
-      <c r="H18" s="8">
-        <f>annotation!E18</f>
-        <v>3</v>
-      </c>
-      <c r="I18" s="8">
-        <f>brief!E18</f>
-        <v>2</v>
-      </c>
-      <c r="J18" s="8">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="K18" s="11">
-        <v>7.6008111239860954</v>
-      </c>
-      <c r="L18" s="8">
-        <v>9.16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="8">
-        <f>title!E19</f>
-        <v>3</v>
-      </c>
-      <c r="C19" s="8">
-        <f>authors!E19</f>
-        <v>3</v>
-      </c>
-      <c r="D19" s="8">
-        <f>authors_full_names!E19</f>
-        <v>2</v>
-      </c>
-      <c r="E19" s="8">
-        <f>pages!E19</f>
-        <v>3</v>
-      </c>
-      <c r="F19" s="8">
-        <f>publisher!E19</f>
-        <v>3</v>
-      </c>
-      <c r="G19" s="8">
-        <f>year!E19</f>
-        <v>3</v>
-      </c>
-      <c r="H19" s="8">
-        <f>annotation!E19</f>
-        <v>2</v>
-      </c>
-      <c r="I19" s="8">
-        <f>brief!E19</f>
-        <v>3</v>
-      </c>
-      <c r="J19" s="8">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="K19" s="11">
-        <v>7.3534183082271163</v>
-      </c>
-      <c r="L19" s="8">
-        <v>17.88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="8">
-        <f>title!E20</f>
-        <v>2</v>
-      </c>
-      <c r="C20" s="8">
-        <f>authors!E20</f>
-        <v>2</v>
-      </c>
-      <c r="D20" s="8">
-        <f>authors_full_names!E20</f>
-        <v>2</v>
-      </c>
-      <c r="E20" s="8">
-        <f>pages!E20</f>
-        <v>3</v>
-      </c>
-      <c r="F20" s="8">
-        <f>publisher!E20</f>
-        <v>1</v>
-      </c>
-      <c r="G20" s="8">
-        <f>year!E20</f>
-        <v>3</v>
-      </c>
-      <c r="H20" s="8">
-        <f>annotation!E20</f>
-        <v>1</v>
-      </c>
-      <c r="I20" s="8">
-        <f>brief!E20</f>
-        <v>1</v>
-      </c>
-      <c r="J20" s="8">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="K20" s="11">
-        <v>15.911008111239862</v>
-      </c>
-      <c r="L20" s="8">
-        <v>19.810000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="8">
-        <f>title!E21</f>
-        <v>3</v>
-      </c>
-      <c r="C21" s="8">
-        <f>authors!E21</f>
-        <v>2</v>
-      </c>
-      <c r="D21" s="8">
-        <f>authors_full_names!E21</f>
-        <v>2</v>
-      </c>
-      <c r="E21" s="8">
-        <f>pages!E21</f>
-        <v>3</v>
-      </c>
-      <c r="F21" s="8">
-        <f>publisher!E21</f>
-        <v>2</v>
-      </c>
-      <c r="G21" s="8">
-        <f>year!E21</f>
-        <v>3</v>
-      </c>
-      <c r="H21" s="8">
-        <f>annotation!E21</f>
-        <v>3</v>
-      </c>
-      <c r="I21" s="8">
-        <f>brief!E21</f>
-        <v>3</v>
-      </c>
-      <c r="J21" s="8">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="K21" s="11">
-        <v>256.82502896871381</v>
-      </c>
-      <c r="L21" s="8">
-        <v>53.47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="23">
-        <f>title!E22</f>
-        <v>3</v>
-      </c>
-      <c r="C22" s="23">
-        <f>authors!E22</f>
-        <v>3</v>
-      </c>
-      <c r="D22" s="23">
-        <f>authors_full_names!E22</f>
-        <v>3</v>
-      </c>
-      <c r="E22" s="23">
-        <f>pages!E22</f>
-        <v>3</v>
-      </c>
-      <c r="F22" s="23">
-        <f>publisher!E22</f>
-        <v>3</v>
-      </c>
-      <c r="G22" s="23">
-        <f>year!E22</f>
-        <v>3</v>
-      </c>
-      <c r="H22" s="23">
-        <f>annotation!E22</f>
-        <v>3</v>
-      </c>
-      <c r="I22" s="23">
-        <f>brief!E22</f>
-        <v>3</v>
-      </c>
-      <c r="J22" s="8">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="K22" s="12">
-        <v>125.53765932792584</v>
-      </c>
-      <c r="L22" s="15">
-        <v>34.22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="13">
-        <f>title!E23</f>
-        <v>3</v>
-      </c>
-      <c r="C23" s="13">
-        <f>authors!E23</f>
-        <v>3</v>
-      </c>
-      <c r="D23" s="13">
-        <f>authors_full_names!E23</f>
-        <v>3</v>
-      </c>
-      <c r="E23" s="13">
-        <f>pages!E23</f>
-        <v>3</v>
-      </c>
-      <c r="F23" s="13">
-        <f>publisher!E23</f>
-        <v>3</v>
-      </c>
-      <c r="G23" s="13">
-        <f>year!E23</f>
-        <v>3</v>
-      </c>
-      <c r="H23" s="13">
-        <f>annotation!E23</f>
-        <v>3</v>
-      </c>
-      <c r="I23" s="13">
-        <f>brief!E23</f>
-        <v>3</v>
-      </c>
-      <c r="J23" s="8">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="K23" s="16">
-        <v>67.523174971031295</v>
-      </c>
-      <c r="L23" s="15">
-        <v>30.47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="13">
-        <f>title!E24</f>
-        <v>3</v>
-      </c>
-      <c r="C24" s="13">
-        <f>authors!E24</f>
-        <v>3</v>
-      </c>
-      <c r="D24" s="13">
-        <f>authors_full_names!E24</f>
-        <v>3</v>
-      </c>
-      <c r="E24" s="13">
-        <f>pages!E24</f>
-        <v>3</v>
-      </c>
-      <c r="F24" s="13">
-        <f>publisher!E24</f>
-        <v>3</v>
-      </c>
-      <c r="G24" s="13">
-        <f>year!E24</f>
-        <v>3</v>
-      </c>
-      <c r="H24" s="13">
-        <f>annotation!E24</f>
-        <v>3</v>
-      </c>
-      <c r="I24" s="13">
-        <f>brief!E24</f>
-        <v>3</v>
-      </c>
-      <c r="J24" s="8">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="K24" s="16">
-        <v>36.324646581691773</v>
-      </c>
-      <c r="L24" s="15">
-        <v>25.29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="23">
-        <f>title!E25</f>
-        <v>3</v>
-      </c>
-      <c r="C25" s="23">
-        <f>authors!E25</f>
-        <v>3</v>
-      </c>
-      <c r="D25" s="23">
-        <f>authors_full_names!E25</f>
-        <v>3</v>
-      </c>
-      <c r="E25" s="23">
-        <f>pages!E25</f>
-        <v>3</v>
-      </c>
-      <c r="F25" s="23">
-        <f>publisher!E25</f>
-        <v>3</v>
-      </c>
-      <c r="G25" s="23">
-        <f>year!E25</f>
-        <v>3</v>
-      </c>
-      <c r="H25" s="23">
-        <f>annotation!E25</f>
-        <v>3</v>
-      </c>
-      <c r="I25" s="23">
-        <f>brief!E25</f>
-        <v>3</v>
-      </c>
-      <c r="J25" s="8">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="K25" s="12">
-        <v>119.70243337195828</v>
-      </c>
-      <c r="L25" s="17">
-        <v>75.650000000000006</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="8">
-        <f>title!E26</f>
-        <v>2</v>
-      </c>
-      <c r="C26" s="8">
-        <f>authors!E26</f>
-        <v>2</v>
-      </c>
-      <c r="D26" s="8">
-        <f>authors_full_names!E26</f>
-        <v>1</v>
-      </c>
-      <c r="E26" s="8">
-        <f>pages!E26</f>
-        <v>2</v>
-      </c>
-      <c r="F26" s="8">
-        <f>publisher!E26</f>
-        <v>1</v>
-      </c>
-      <c r="G26" s="8">
-        <f>year!E26</f>
-        <v>3</v>
-      </c>
-      <c r="H26" s="8">
-        <f>annotation!E26</f>
-        <v>2</v>
-      </c>
-      <c r="I26" s="8">
-        <f>brief!E26</f>
-        <v>2</v>
-      </c>
-      <c r="J26" s="8">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="K26" s="11">
-        <v>174.54229432213211</v>
-      </c>
-      <c r="L26" s="8">
-        <v>74.53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="8">
-        <f>title!E27</f>
-        <v>3</v>
-      </c>
-      <c r="C27" s="8">
-        <f>authors!E27</f>
-        <v>3</v>
-      </c>
-      <c r="D27" s="8">
-        <f>authors_full_names!E27</f>
-        <v>2</v>
-      </c>
-      <c r="E27" s="8">
-        <f>pages!E27</f>
-        <v>3</v>
-      </c>
-      <c r="F27" s="8">
-        <f>publisher!E27</f>
-        <v>3</v>
-      </c>
-      <c r="G27" s="8">
-        <f>year!E27</f>
-        <v>3</v>
-      </c>
-      <c r="H27" s="8">
-        <f>annotation!E27</f>
-        <v>3</v>
-      </c>
-      <c r="I27" s="8">
-        <f>brief!E27</f>
-        <v>3</v>
-      </c>
-      <c r="J27" s="8">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="K27" s="11">
-        <v>30.732792584009275</v>
-      </c>
-      <c r="L27" s="8">
-        <v>37.879999999999995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="8">
-        <f>title!E28</f>
-        <v>3</v>
-      </c>
-      <c r="C28" s="8">
-        <f>authors!E28</f>
-        <v>3</v>
-      </c>
-      <c r="D28" s="8">
-        <f>authors_full_names!E28</f>
-        <v>3</v>
-      </c>
-      <c r="E28" s="8">
-        <f>pages!E28</f>
-        <v>3</v>
-      </c>
-      <c r="F28" s="8">
-        <f>publisher!E28</f>
-        <v>2</v>
-      </c>
-      <c r="G28" s="8">
-        <f>year!E28</f>
-        <v>3</v>
-      </c>
-      <c r="H28" s="8">
-        <f>annotation!E28</f>
-        <v>2</v>
-      </c>
-      <c r="I28" s="8">
-        <f>brief!E28</f>
-        <v>3</v>
-      </c>
-      <c r="J28" s="8">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="K28" s="11">
+      <c r="L28" s="10">
         <v>9.496292004634995</v>
       </c>
-      <c r="L28" s="8">
+      <c r="M28" s="7">
         <v>23.78</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <f>title!E29</f>
         <v>2</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <f>authors!E29</f>
         <v>2</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <f>authors_full_names!E29</f>
         <v>0</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <f>pages!E29</f>
         <v>2</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <f>publisher!E29</f>
         <v>1</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="7">
         <f>year!E29</f>
         <v>3</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="7">
+        <f>isbn!E29</f>
+        <v>3</v>
+      </c>
+      <c r="I29" s="7">
         <f>annotation!E29</f>
         <v>2</v>
       </c>
-      <c r="I29" s="8">
+      <c r="J29" s="7">
         <f>brief!E29</f>
         <v>2</v>
       </c>
-      <c r="J29" s="8">
+      <c r="K29" s="7">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="K29" s="11">
+        <v>17</v>
+      </c>
+      <c r="L29" s="10">
         <v>88.543453070683654</v>
       </c>
-      <c r="L29" s="8">
+      <c r="M29" s="7">
         <v>70.680000000000007</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J29">
+  <conditionalFormatting sqref="K2:K29">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="23"/>
@@ -2806,7 +2920,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K29">
+  <conditionalFormatting sqref="L2:L29">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2818,7 +2932,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L29">
+  <conditionalFormatting sqref="M2:M29">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3350,7 +3464,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3510,7 +3624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -7991,17 +8105,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="5" width="50" customWidth="1"/>
+    <col min="2" max="4" width="50" customWidth="1"/>
+    <col min="5" max="5" width="5.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -8012,8 +8129,11 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -8024,8 +8144,11 @@
       <c r="D2" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -8036,8 +8159,11 @@
       <c r="D3" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -8048,8 +8174,11 @@
       <c r="D4" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -8060,8 +8189,11 @@
       <c r="D5" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -8072,8 +8204,11 @@
       <c r="D6" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -8084,8 +8219,11 @@
       <c r="D7" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -8096,8 +8234,11 @@
       <c r="D8" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -8108,8 +8249,11 @@
       <c r="D9" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -8122,8 +8266,11 @@
       <c r="D10" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -8134,8 +8281,11 @@
       <c r="D11" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -8146,8 +8296,11 @@
       <c r="D12" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -8160,8 +8313,11 @@
       <c r="D13" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -8170,8 +8326,11 @@
       <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -8184,8 +8343,11 @@
       <c r="D15" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -8196,8 +8358,11 @@
       <c r="D16" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -8208,8 +8373,11 @@
       <c r="D17" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -8220,8 +8388,11 @@
       <c r="D18" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -8232,8 +8403,11 @@
       <c r="D19" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -8244,8 +8418,11 @@
       <c r="D20" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -8258,8 +8435,11 @@
       <c r="D21" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -8270,8 +8450,11 @@
       <c r="D22" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -8282,8 +8465,11 @@
       <c r="D23" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -8294,8 +8480,11 @@
       <c r="D24" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -8306,8 +8495,11 @@
       <c r="D25" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -8318,8 +8510,11 @@
       <c r="D26" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -8330,8 +8525,11 @@
       <c r="D27" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -8344,8 +8542,11 @@
       <c r="D28" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -8355,6 +8556,9 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
         <v>125</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/examples/extract_book_info/model_comparison_results_4public.xlsx
+++ b/examples/extract_book_info/model_comparison_results_4public.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stas\NextCloud\GitHub\HomeLibraryAI\examples\extract_book_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79CF67B-9039-40A7-BDF3-957B3132D2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96F2852-9E2E-49B4-8118-A37B0DB745ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="300">
   <si>
     <t>page1</t>
   </si>
@@ -897,18 +897,9 @@
     <t>Михаил Васильевич Федорук С М Матвеев</t>
   </si>
   <si>
-    <t>sum</t>
-  </si>
-  <si>
     <t>count</t>
   </si>
   <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -940,18 +931,41 @@
   </si>
   <si>
     <t>isbn</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>cost ₽/pcs</t>
+  </si>
+  <si>
+    <t>time sec/pcs</t>
+  </si>
+  <si>
+    <t>Модель</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1038,7 +1052,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1050,31 +1066,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1098,26 +1111,330 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="31">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1136,6 +1453,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{202A9BC3-20F6-464D-A273-30462B667191}" name="Таблица5" displayName="Таблица5" ref="A1:E29" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:E29" xr:uid="{202A9BC3-20F6-464D-A273-30462B667191}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{4AFFD28E-37E9-42C5-91A2-20C12D5FF4CD}" name="Модель" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{69481CB5-2CCB-45B1-ADAD-0AC7B7CBD4F9}" name="page1" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{7EE1C24C-0C52-4A7E-B549-7E1F1717243F}" name="page2" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{8FCC61AB-31A3-4917-AA29-122F87D99465}" name="page3" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{9350A1BC-BC34-4FF2-9541-D202782D1552}" name="avg" dataDxfId="0">
+      <calculatedColumnFormula>(B2+C2+D2)/3</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0ABE6B60-3736-425A-86FE-3FFAF0750755}" name="Таблица3" displayName="Таблица3" ref="A1:E30" totalsRowCount="1" headerRowDxfId="15">
+  <autoFilter ref="A1:E29" xr:uid="{0ABE6B60-3736-425A-86FE-3FFAF0750755}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{3EC661A3-3E54-445D-AC78-7E6248BB8CBC}" name="Модель" totalsRowLabel="avg" dataDxfId="14" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{FC9E6D54-5580-41F3-88DE-16DB5D247432}" name="page1" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="8">
+      <totalsRowFormula>AVERAGE(Таблица3[page1])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{A0E20CAD-581C-4C71-97EA-E3A9833821B3}" name="page2" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="7">
+      <totalsRowFormula>AVERAGE(Таблица3[page2])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{7B10F064-67B1-4ED8-A682-D71344F0FE05}" name="page3" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="6">
+      <totalsRowFormula>AVERAGE(Таблица3[page3])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{16E2E3E1-761F-4DC9-AC45-8F9513A80870}" name="avg" dataDxfId="10">
+      <calculatedColumnFormula>ROUND((B2+C2+D2)/3,1)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB1F56D5-12FA-416B-9DB5-38C8E1D50371}" name="Таблица2" displayName="Таблица2" ref="A1:E29" totalsRowShown="0" headerRowDxfId="16" dataDxfId="17">
+  <autoFilter ref="A1:E29" xr:uid="{DB1F56D5-12FA-416B-9DB5-38C8E1D50371}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{38401B49-BA8C-4279-A952-AF1547D8B4D8}" name="Модель" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{99BF8D23-E3BE-43F2-93E2-B609A755AF47}" name="page1" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{63715C0F-D603-4FF1-9A7C-F8B0A209D430}" name="page2" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{47CD8732-B6C5-4986-9826-2E4892457DCB}" name="page3" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{0ED0FB57-21B1-4209-B81C-59A94A89848B}" name="count" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45173CD4-BB3F-4097-9BBD-1AC9B67D21F5}" name="Таблица1" displayName="Таблица1" ref="A1:E29" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="28">
+  <autoFilter ref="A1:E29" xr:uid="{45173CD4-BB3F-4097-9BBD-1AC9B67D21F5}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C4E5318A-BF4D-471E-A3CD-581B485980FE}" name="Модель" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{1177B1B5-9A2D-46E6-AF67-723C791352D4}" name="page1" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{FD943AD3-9655-4161-A8A6-05681F2225F6}" name="page2" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{7AEFC41A-B518-4354-83C7-FDC45F921584}" name="page3" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{6E593D72-57E3-4C46-9803-A06704F1E3E7}" name="count" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1425,9 +1808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5403F85C-2BFC-47E7-A6C7-566BA4A0C256}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1436,1475 +1817,1476 @@
     <col min="4" max="4" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.90625" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>287</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6">
         <f>title!E2</f>
         <v>2</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <f>authors!E2</f>
         <v>3</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <f>authors_full_names!E2</f>
         <v>3</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <f>pages!E2</f>
         <v>3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <f>publisher!E2</f>
         <v>2</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <f>year!E2</f>
         <v>3</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <f>isbn!E2</f>
         <v>3</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <f>annotation!E2</f>
         <v>3</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <f>brief!E2</f>
         <v>3</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <f>SUM(B2:J2)</f>
         <v>25</v>
       </c>
-      <c r="L2" s="10">
-        <v>11.693256083429896</v>
-      </c>
-      <c r="M2" s="7">
-        <v>18.68</v>
+      <c r="L2" s="21">
+        <v>0.33637600000000001</v>
+      </c>
+      <c r="M2" s="6">
+        <v>6.2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <f>title!E3</f>
         <v>3</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <f>authors!E3</f>
         <v>3</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <f>authors_full_names!E3</f>
         <v>3</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <f>pages!E3</f>
         <v>3</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="20">
         <f>publisher!E3</f>
         <v>3</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="20">
         <f>year!E3</f>
         <v>3</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="20">
         <f>isbn!E3</f>
         <v>3</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="20">
         <f>annotation!E3</f>
         <v>3</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="20">
         <f>brief!E3</f>
         <v>3</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <f t="shared" ref="K3:K29" si="0">SUM(B3:J3)</f>
         <v>27</v>
       </c>
-      <c r="L3" s="11">
-        <v>575.59675550405564</v>
-      </c>
-      <c r="M3" s="12">
-        <v>48.99</v>
+      <c r="L3" s="10">
+        <v>16.558</v>
+      </c>
+      <c r="M3" s="11">
+        <v>16.3</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <f>title!E4</f>
         <v>3</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <f>authors!E4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f>authors_full_names!E4</f>
         <v>3</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <f>pages!E4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f>publisher!E4</f>
         <v>1</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f>year!E4</f>
         <v>3</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <f>isbn!E4</f>
         <v>3</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <f>annotation!E4</f>
         <v>3</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <f>brief!E4</f>
         <v>3</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="L4" s="10">
-        <v>111.6431054461182</v>
-      </c>
-      <c r="M4" s="7">
-        <v>32.590000000000003</v>
+      <c r="L4" s="9">
+        <v>3.2116000000000002</v>
+      </c>
+      <c r="M4" s="6">
+        <v>10.9</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <f>title!E5</f>
         <v>3</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <f>authors!E5</f>
         <v>3</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <f>authors_full_names!E5</f>
         <v>3</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <f>pages!E5</f>
         <v>3</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <f>publisher!E5</f>
         <v>3</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <f>year!E5</f>
         <v>3</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <f>isbn!E5</f>
         <v>3</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="20">
         <f>annotation!E5</f>
         <v>3</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="20">
         <f>brief!E5</f>
         <v>3</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="L5" s="11">
-        <v>115.04982618771727</v>
-      </c>
-      <c r="M5" s="12">
-        <v>46.75</v>
+      <c r="L5" s="10">
+        <v>3.3096000000000001</v>
+      </c>
+      <c r="M5" s="11">
+        <v>15.6</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <f>title!E6</f>
         <v>3</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <f>authors!E6</f>
         <v>3</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <f>authors_full_names!E6</f>
         <v>3</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <f>pages!E6</f>
         <v>3</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <f>publisher!E6</f>
         <v>3</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <f>year!E6</f>
         <v>3</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <f>isbn!E6</f>
         <v>3</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <f>annotation!E6</f>
         <v>3</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="20">
         <f>brief!E6</f>
         <v>3</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="L6" s="11">
-        <v>154.04866743916571</v>
-      </c>
-      <c r="M6" s="12">
-        <v>38.82</v>
+      <c r="L6" s="10">
+        <v>4.4314666666666662</v>
+      </c>
+      <c r="M6" s="11">
+        <v>12.9</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <f>title!E7</f>
         <v>3</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <f>authors!E7</f>
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f>authors_full_names!E7</f>
         <v>3</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <f>pages!E7</f>
         <v>1</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f>publisher!E7</f>
         <v>3</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f>year!E7</f>
         <v>3</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <f>isbn!E7</f>
         <v>3</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <f>annotation!E7</f>
         <v>3</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <f>brief!E7</f>
         <v>3</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="L7" s="10">
-        <v>234.20625724217845</v>
-      </c>
-      <c r="M7" s="7">
-        <v>68.08</v>
+      <c r="L7" s="9">
+        <v>6.737333333333333</v>
+      </c>
+      <c r="M7" s="6">
+        <v>22.7</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <f>title!E8</f>
         <v>3</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <f>authors!E8</f>
         <v>3</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <f>authors_full_names!E8</f>
         <v>3</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <f>pages!E8</f>
         <v>3</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <f>publisher!E8</f>
         <v>3</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <f>year!E8</f>
         <v>3</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <f>isbn!E8</f>
         <v>3</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <f>annotation!E8</f>
         <v>3</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="17">
         <f>brief!E8</f>
         <v>3</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="L8" s="13">
-        <v>5.5873696407879487</v>
-      </c>
-      <c r="M8" s="14">
-        <v>18.41</v>
+      <c r="L8" s="12">
+        <v>0.16073000000000001</v>
+      </c>
+      <c r="M8" s="13">
+        <v>6.1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <f>title!E9</f>
         <v>3</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <f>authors!E9</f>
         <v>3</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <f>authors_full_names!E9</f>
         <v>3</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <f>pages!E9</f>
         <v>3</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f>publisher!E9</f>
         <v>3</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <f>year!E9</f>
         <v>3</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <f>isbn!E9</f>
         <v>3</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <f>annotation!E9</f>
         <v>3</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <f>brief!E9</f>
         <v>2</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="L9" s="10">
-        <v>5.4717844727694089</v>
-      </c>
-      <c r="M9" s="7">
-        <v>73.009999999999991</v>
+      <c r="L9" s="9">
+        <v>0.15740499999999999</v>
+      </c>
+      <c r="M9" s="6">
+        <v>24.3</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <f>title!E10</f>
         <v>3</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <f>authors!E10</f>
         <v>3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <f>authors_full_names!E10</f>
         <v>3</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <f>pages!E10</f>
         <v>3</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <f>publisher!E10</f>
         <v>3</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <f>year!E10</f>
         <v>3</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <f>isbn!E10</f>
         <v>2</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <f>annotation!E10</f>
         <v>3</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <f>brief!E10</f>
         <v>3</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="L10" s="15">
-        <v>71.738296639629198</v>
-      </c>
-      <c r="M10" s="12">
-        <v>36.08</v>
+      <c r="L10" s="14">
+        <v>2.0636716666666666</v>
+      </c>
+      <c r="M10" s="11">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <f>title!E11</f>
         <v>3</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <f>authors!E11</f>
         <v>3</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <f>authors_full_names!E11</f>
         <v>3</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <f>pages!E11</f>
         <v>3</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <f>publisher!E11</f>
         <v>3</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <f>year!E11</f>
         <v>3</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="17">
         <f>isbn!E11</f>
         <v>3</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <f>annotation!E11</f>
         <v>3</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="17">
         <f>brief!E11</f>
         <v>3</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="L11" s="13">
-        <v>2.1484936268829666</v>
-      </c>
-      <c r="M11" s="14">
-        <v>16.79</v>
+      <c r="L11" s="12">
+        <v>6.1805000000000006E-2</v>
+      </c>
+      <c r="M11" s="13">
+        <v>5.6</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <f>title!E12</f>
         <v>3</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <f>authors!E12</f>
         <v>3</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <f>authors_full_names!E12</f>
         <v>3</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <f>pages!E12</f>
         <v>3</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <f>publisher!E12</f>
         <v>3</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <f>year!E12</f>
         <v>3</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <f>isbn!E12</f>
         <v>3</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <f>annotation!E12</f>
         <v>3</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <f>brief!E12</f>
         <v>3</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="L12" s="15">
-        <v>40.141946697566631</v>
-      </c>
-      <c r="M12" s="14">
-        <v>23.41</v>
+      <c r="L12" s="14">
+        <v>1.1547499999999999</v>
+      </c>
+      <c r="M12" s="13">
+        <v>7.8</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <f>title!E13</f>
         <v>2</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <f>authors!E13</f>
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <f>authors_full_names!E13</f>
         <v>2</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <f>pages!E13</f>
         <v>3</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <f>publisher!E13</f>
         <v>2</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <f>year!E13</f>
         <v>2</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <f>isbn!E13</f>
         <v>2</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <f>annotation!E13</f>
         <v>1</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <f>brief!E13</f>
         <v>0</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="L13" s="10">
-        <v>4.1446118192352266</v>
-      </c>
-      <c r="M13" s="7">
-        <v>35.11</v>
+      <c r="L13" s="9">
+        <v>0.11922666666666666</v>
+      </c>
+      <c r="M13" s="6">
+        <v>11.7</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <f>title!E14</f>
         <v>0</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f>authors!E14</f>
         <v>0</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <f>authors_full_names!E14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <f>pages!E14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <f>publisher!E14</f>
         <v>0</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <f>year!E14</f>
         <v>0</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <f>isbn!E14</f>
         <v>1</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <f>annotation!E14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <f>brief!E14</f>
         <v>0</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L14" s="10">
-        <v>9.2167439165701044</v>
-      </c>
-      <c r="M14" s="7">
-        <v>77.41</v>
+      <c r="L14" s="9">
+        <v>0.26513500000000001</v>
+      </c>
+      <c r="M14" s="6">
+        <v>25.8</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <f>title!E15</f>
         <v>2</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f>authors!E15</f>
         <v>1</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <f>authors_full_names!E15</f>
         <v>0</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <f>pages!E15</f>
         <v>2</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <f>publisher!E15</f>
         <v>2</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <f>year!E15</f>
         <v>2</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <f>isbn!E15</f>
         <v>3</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <f>annotation!E15</f>
         <v>1</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <f>brief!E15</f>
         <v>0</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="L15" s="10">
-        <v>66.805793742757828</v>
-      </c>
-      <c r="M15" s="7">
-        <v>94.58</v>
+      <c r="L15" s="9">
+        <v>1.92178</v>
+      </c>
+      <c r="M15" s="6">
+        <v>31.5</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <f>title!E16</f>
         <v>2</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f>authors!E16</f>
         <v>2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <f>authors_full_names!E16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <f>pages!E16</f>
         <v>3</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <f>publisher!E16</f>
         <v>1</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <f>year!E16</f>
         <v>3</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <f>isbn!E16</f>
         <v>3</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <f>annotation!E16</f>
         <v>2</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <f>brief!E16</f>
         <v>3</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="L16" s="10">
-        <v>89.078794901506384</v>
-      </c>
-      <c r="M16" s="7">
-        <v>60.74</v>
+      <c r="L16" s="9">
+        <v>2.5625</v>
+      </c>
+      <c r="M16" s="6">
+        <v>20.2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <f>title!E17</f>
         <v>3</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <f>authors!E17</f>
         <v>3</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <f>authors_full_names!E17</f>
         <v>3</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <f>pages!E17</f>
         <v>3</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <f>publisher!E17</f>
         <v>3</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <f>year!E17</f>
         <v>3</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <f>isbn!E17</f>
         <v>3</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="11">
         <f>annotation!E17</f>
         <v>3</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="11">
         <f>brief!E17</f>
         <v>3</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="L17" s="13">
-        <v>9.6674391657010421</v>
-      </c>
-      <c r="M17" s="12">
-        <v>52.79</v>
+      <c r="L17" s="12">
+        <v>0.27810000000000001</v>
+      </c>
+      <c r="M17" s="11">
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <f>title!E18</f>
         <v>3</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <f>authors!E18</f>
         <v>3</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <f>authors_full_names!E18</f>
         <v>3</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <f>pages!E18</f>
         <v>3</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <f>publisher!E18</f>
         <v>3</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <f>year!E18</f>
         <v>3</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <f>isbn!E18</f>
         <v>3</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <f>annotation!E18</f>
         <v>3</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <f>brief!E18</f>
         <v>2</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="L18" s="10">
-        <v>7.6008111239860954</v>
-      </c>
-      <c r="M18" s="7">
-        <v>9.16</v>
+      <c r="L18" s="9">
+        <v>0.21865000000000001</v>
+      </c>
+      <c r="M18" s="6">
+        <v>3.1</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <f>title!E19</f>
         <v>3</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f>authors!E19</f>
         <v>3</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <f>authors_full_names!E19</f>
         <v>2</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <f>pages!E19</f>
         <v>3</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <f>publisher!E19</f>
         <v>3</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <f>year!E19</f>
         <v>3</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <f>isbn!E19</f>
         <v>3</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <f>annotation!E19</f>
         <v>2</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <f>brief!E19</f>
         <v>3</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="L19" s="10">
-        <v>7.3534183082271163</v>
-      </c>
-      <c r="M19" s="7">
-        <v>17.88</v>
+      <c r="L19" s="9">
+        <v>0.21153333333333335</v>
+      </c>
+      <c r="M19" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <f>title!E20</f>
         <v>2</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <f>authors!E20</f>
         <v>2</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <f>authors_full_names!E20</f>
         <v>2</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <f>pages!E20</f>
         <v>3</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <f>publisher!E20</f>
         <v>1</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <f>year!E20</f>
         <v>3</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <f>isbn!E20</f>
         <v>3</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <f>annotation!E20</f>
         <v>1</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <f>brief!E20</f>
         <v>1</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="L20" s="10">
-        <v>15.911008111239862</v>
-      </c>
-      <c r="M20" s="7">
-        <v>19.810000000000002</v>
+      <c r="L20" s="9">
+        <v>0.45770666666666671</v>
+      </c>
+      <c r="M20" s="6">
+        <v>6.6</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <f>title!E21</f>
         <v>3</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f>authors!E21</f>
         <v>2</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <f>authors_full_names!E21</f>
         <v>2</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <f>pages!E21</f>
         <v>3</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <f>publisher!E21</f>
         <v>2</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <f>year!E21</f>
         <v>3</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <f>isbn!E21</f>
         <v>2</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <f>annotation!E21</f>
         <v>3</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <f>brief!E21</f>
         <v>3</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="L21" s="10">
-        <v>256.82502896871381</v>
-      </c>
-      <c r="M21" s="7">
-        <v>53.47</v>
+      <c r="L21" s="9">
+        <v>7.3880000000000008</v>
+      </c>
+      <c r="M21" s="6">
+        <v>17.8</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="20">
         <f>title!E22</f>
         <v>3</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="20">
         <f>authors!E22</f>
         <v>3</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="20">
         <f>authors_full_names!E22</f>
         <v>3</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <f>pages!E22</f>
         <v>3</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <f>publisher!E22</f>
         <v>3</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="20">
         <f>year!E22</f>
         <v>3</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="20">
         <f>isbn!E22</f>
         <v>3</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="20">
         <f>annotation!E22</f>
         <v>3</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="20">
         <f>brief!E22</f>
         <v>3</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="L22" s="11">
-        <v>125.53765932792584</v>
-      </c>
-      <c r="M22" s="14">
-        <v>34.22</v>
+      <c r="L22" s="10">
+        <v>3.6113</v>
+      </c>
+      <c r="M22" s="13">
+        <v>11.4</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <f>title!E23</f>
         <v>3</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <f>authors!E23</f>
         <v>3</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <f>authors_full_names!E23</f>
         <v>3</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <f>pages!E23</f>
         <v>3</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <f>publisher!E23</f>
         <v>3</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="11">
         <f>year!E23</f>
         <v>3</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="11">
         <f>isbn!E23</f>
         <v>3</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="11">
         <f>annotation!E23</f>
         <v>3</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="11">
         <f>brief!E23</f>
         <v>3</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="L23" s="15">
-        <v>67.523174971031295</v>
-      </c>
-      <c r="M23" s="14">
-        <v>30.47</v>
+      <c r="L23" s="14">
+        <v>1.9424166666666667</v>
+      </c>
+      <c r="M23" s="13">
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <f>title!E24</f>
         <v>3</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <f>authors!E24</f>
         <v>3</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <f>authors_full_names!E24</f>
         <v>3</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="11">
         <f>pages!E24</f>
         <v>3</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <f>publisher!E24</f>
         <v>3</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <f>year!E24</f>
         <v>3</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="11">
         <f>isbn!E24</f>
         <v>3</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="11">
         <f>annotation!E24</f>
         <v>3</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="11">
         <f>brief!E24</f>
         <v>3</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="L24" s="15">
-        <v>36.324646581691773</v>
-      </c>
-      <c r="M24" s="14">
-        <v>25.29</v>
+      <c r="L24" s="14">
+        <v>1.0449390000000001</v>
+      </c>
+      <c r="M24" s="13">
+        <v>8.4</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="20">
         <f>title!E25</f>
         <v>3</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="20">
         <f>authors!E25</f>
         <v>3</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="20">
         <f>authors_full_names!E25</f>
         <v>3</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <f>pages!E25</f>
         <v>3</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="20">
         <f>publisher!E25</f>
         <v>3</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="20">
         <f>year!E25</f>
         <v>3</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="20">
         <f>isbn!E25</f>
         <v>3</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="20">
         <f>annotation!E25</f>
         <v>3</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="20">
         <f>brief!E25</f>
         <v>3</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="L25" s="11">
-        <v>119.70243337195828</v>
-      </c>
-      <c r="M25" s="16">
-        <v>75.650000000000006</v>
+      <c r="L25" s="10">
+        <v>3.4434400000000003</v>
+      </c>
+      <c r="M25" s="15">
+        <v>25.2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <f>title!E26</f>
         <v>2</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <f>authors!E26</f>
         <v>2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <f>authors_full_names!E26</f>
         <v>1</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <f>pages!E26</f>
         <v>2</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <f>publisher!E26</f>
         <v>1</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <f>year!E26</f>
         <v>3</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <f>isbn!E26</f>
         <v>3</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <f>annotation!E26</f>
         <v>2</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="6">
         <f>brief!E26</f>
         <v>2</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="L26" s="10">
-        <v>174.54229432213211</v>
-      </c>
-      <c r="M26" s="7">
-        <v>74.53</v>
+      <c r="L26" s="9">
+        <v>5.0209999999999999</v>
+      </c>
+      <c r="M26" s="6">
+        <v>24.8</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <f>title!E27</f>
         <v>3</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <f>authors!E27</f>
         <v>3</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <f>authors_full_names!E27</f>
         <v>2</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <f>pages!E27</f>
         <v>3</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <f>publisher!E27</f>
         <v>3</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <f>year!E27</f>
         <v>3</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <f>isbn!E27</f>
         <v>3</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <f>annotation!E27</f>
         <v>3</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="6">
         <f>brief!E27</f>
         <v>3</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="L27" s="10">
-        <v>30.732792584009275</v>
-      </c>
-      <c r="M27" s="7">
-        <v>37.879999999999995</v>
+      <c r="L27" s="9">
+        <v>0.88407999999999998</v>
+      </c>
+      <c r="M27" s="6">
+        <v>12.6</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <f>title!E28</f>
         <v>3</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <f>authors!E28</f>
         <v>3</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <f>authors_full_names!E28</f>
         <v>3</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <f>pages!E28</f>
         <v>3</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <f>publisher!E28</f>
         <v>2</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <f>year!E28</f>
         <v>3</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="6">
         <f>isbn!E28</f>
         <v>2</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <f>annotation!E28</f>
         <v>2</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="6">
         <f>brief!E28</f>
         <v>3</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="L28" s="10">
-        <v>9.496292004634995</v>
-      </c>
-      <c r="M28" s="7">
-        <v>23.78</v>
+      <c r="L28" s="9">
+        <v>0.27317666666666668</v>
+      </c>
+      <c r="M28" s="6">
+        <v>7.9</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <f>title!E29</f>
         <v>2</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <f>authors!E29</f>
         <v>2</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <f>authors_full_names!E29</f>
         <v>0</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <f>pages!E29</f>
         <v>2</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <f>publisher!E29</f>
         <v>1</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <f>year!E29</f>
         <v>3</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="6">
         <f>isbn!E29</f>
         <v>3</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <f>annotation!E29</f>
         <v>2</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="6">
         <f>brief!E29</f>
         <v>2</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="L29" s="10">
-        <v>88.543453070683654</v>
-      </c>
-      <c r="M29" s="7">
-        <v>70.680000000000007</v>
+      <c r="L29" s="9">
+        <v>2.5470999999999999</v>
+      </c>
+      <c r="M29" s="6">
+        <v>23.6</v>
       </c>
     </row>
   </sheetData>
@@ -2925,7 +3307,7 @@
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="100"/>
+        <cfvo type="num" val="3"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2945,6 +3327,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2952,7 +3335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -2960,7 +3343,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="4" width="50" customWidth="1"/>
-    <col min="5" max="5" width="50" style="6" customWidth="1"/>
+    <col min="5" max="5" width="50" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -2975,7 +3358,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="319" x14ac:dyDescent="0.35">
@@ -2991,7 +3374,7 @@
       <c r="D2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>3</v>
       </c>
     </row>
@@ -3008,7 +3391,7 @@
       <c r="D3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>3</v>
       </c>
     </row>
@@ -3025,7 +3408,7 @@
       <c r="D4" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>3</v>
       </c>
     </row>
@@ -3042,7 +3425,7 @@
       <c r="D5" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>3</v>
       </c>
     </row>
@@ -3059,7 +3442,7 @@
       <c r="D6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>3</v>
       </c>
     </row>
@@ -3076,7 +3459,7 @@
       <c r="D7" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>3</v>
       </c>
     </row>
@@ -3093,7 +3476,7 @@
       <c r="D8" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>3</v>
       </c>
     </row>
@@ -3110,7 +3493,7 @@
       <c r="D9" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>3</v>
       </c>
     </row>
@@ -3127,7 +3510,7 @@
       <c r="D10" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>3</v>
       </c>
     </row>
@@ -3144,7 +3527,7 @@
       <c r="D11" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>3</v>
       </c>
     </row>
@@ -3161,7 +3544,7 @@
       <c r="D12" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>3</v>
       </c>
     </row>
@@ -3178,7 +3561,7 @@
       <c r="D13" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3195,7 +3578,7 @@
       <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3212,7 +3595,7 @@
       <c r="D15" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3229,7 +3612,7 @@
       <c r="D16" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>2</v>
       </c>
     </row>
@@ -3246,7 +3629,7 @@
       <c r="D17" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>3</v>
       </c>
     </row>
@@ -3263,7 +3646,7 @@
       <c r="D18" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>3</v>
       </c>
     </row>
@@ -3280,7 +3663,7 @@
       <c r="D19" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>2</v>
       </c>
     </row>
@@ -3297,7 +3680,7 @@
       <c r="D20" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3314,7 +3697,7 @@
       <c r="D21" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>3</v>
       </c>
     </row>
@@ -3331,7 +3714,7 @@
       <c r="D22" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>3</v>
       </c>
     </row>
@@ -3348,7 +3731,7 @@
       <c r="D23" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>3</v>
       </c>
     </row>
@@ -3365,7 +3748,7 @@
       <c r="D24" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>3</v>
       </c>
     </row>
@@ -3382,7 +3765,7 @@
       <c r="D25" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>3</v>
       </c>
     </row>
@@ -3399,7 +3782,7 @@
       <c r="D26" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>2</v>
       </c>
     </row>
@@ -3416,7 +3799,7 @@
       <c r="D27" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>3</v>
       </c>
     </row>
@@ -3433,7 +3816,7 @@
       <c r="D28" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>2</v>
       </c>
     </row>
@@ -3450,7 +3833,7 @@
       <c r="D29" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>2</v>
       </c>
     </row>
@@ -3485,7 +3868,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
@@ -3978,510 +4361,517 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="4" width="50" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.26953125" customWidth="1"/>
+    <col min="3" max="3" width="35.08984375" customWidth="1"/>
+    <col min="4" max="4" width="33.36328125" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>285</v>
+      <c r="D1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="E12" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="E25" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27">
+      <c r="D27" s="22"/>
+      <c r="E27" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+      <c r="E28" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="24">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D6C7E9-1FD5-448E-93C7-4B7CDA8D2454}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B19" sqref="B19:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4491,534 +4881,569 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>284</v>
+      <c r="D1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4">
-        <v>4.6822247972190043</v>
-      </c>
-      <c r="C2" s="4">
-        <v>3.5246349942062571</v>
-      </c>
-      <c r="D2" s="4">
-        <v>3.4863962920046352</v>
-      </c>
-      <c r="E2" s="4">
-        <f>B2+C2+D2</f>
-        <v>11.693256083429896</v>
+      <c r="A2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="36">
+        <v>0.40407599999999999</v>
+      </c>
+      <c r="C2" s="36">
+        <v>0.304176</v>
+      </c>
+      <c r="D2" s="36">
+        <v>0.30087599999999998</v>
+      </c>
+      <c r="E2" s="36">
+        <f>(B2+C2+D2)/3</f>
+        <v>0.33637600000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
-        <v>235.89803012746236</v>
-      </c>
-      <c r="C3" s="4">
-        <v>170.71842410196987</v>
-      </c>
-      <c r="D3" s="4">
-        <v>168.9803012746234</v>
-      </c>
-      <c r="E3" s="4">
-        <f t="shared" ref="E3:E29" si="0">B3+C3+D3</f>
-        <v>575.59675550405564</v>
+      <c r="B3" s="36">
+        <v>20.358000000000001</v>
+      </c>
+      <c r="C3" s="36">
+        <v>14.733000000000001</v>
+      </c>
+      <c r="D3" s="36">
+        <v>14.583</v>
+      </c>
+      <c r="E3" s="36">
+        <f t="shared" ref="E3:E29" si="0">(B3+C3+D3)/3</f>
+        <v>16.558</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
-        <v>43.772885283893402</v>
-      </c>
-      <c r="C4" s="4">
-        <v>35.117033603708002</v>
-      </c>
-      <c r="D4" s="4">
-        <v>32.753186558516809</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="B4" s="36">
+        <v>3.7776000000000001</v>
+      </c>
+      <c r="C4" s="36">
+        <v>3.0306000000000002</v>
+      </c>
+      <c r="D4" s="36">
+        <v>2.8266</v>
+      </c>
+      <c r="E4" s="36">
         <f t="shared" si="0"/>
-        <v>111.6431054461182</v>
+        <v>3.2116000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
-        <v>47.422943221320978</v>
-      </c>
-      <c r="C5" s="4">
-        <v>34.004634994206256</v>
-      </c>
-      <c r="D5" s="4">
-        <v>33.622247972190038</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="B5" s="36">
+        <v>4.0926</v>
+      </c>
+      <c r="C5" s="36">
+        <v>2.9346000000000001</v>
+      </c>
+      <c r="D5" s="36">
+        <v>2.9016000000000002</v>
+      </c>
+      <c r="E5" s="36">
         <f t="shared" si="0"/>
-        <v>115.04982618771727</v>
+        <v>3.3096000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
-        <v>63.4159907300116</v>
-      </c>
-      <c r="C6" s="4">
-        <v>45.942062572421783</v>
-      </c>
-      <c r="D6" s="4">
-        <v>44.690614136732329</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="B6" s="36">
+        <v>5.4728000000000003</v>
+      </c>
+      <c r="C6" s="36">
+        <v>3.9647999999999999</v>
+      </c>
+      <c r="D6" s="36">
+        <v>3.8567999999999998</v>
+      </c>
+      <c r="E6" s="36">
         <f t="shared" si="0"/>
-        <v>154.04866743916571</v>
+        <v>4.4314666666666662</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
-        <v>100.76477404403245</v>
-      </c>
-      <c r="C7" s="4">
-        <v>70.451911935110076</v>
-      </c>
-      <c r="D7" s="4">
-        <v>62.98957126303592</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="B7" s="36">
+        <v>8.6959999999999997</v>
+      </c>
+      <c r="C7" s="36">
+        <v>6.08</v>
+      </c>
+      <c r="D7" s="36">
+        <v>5.4359999999999999</v>
+      </c>
+      <c r="E7" s="36">
         <f t="shared" si="0"/>
-        <v>234.20625724217845</v>
+        <v>6.737333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
-        <v>2.8928157589803014</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1.3618771726535341</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1.3326767091541136</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="B8" s="36">
+        <v>0.24965000000000001</v>
+      </c>
+      <c r="C8" s="36">
+        <v>0.11753</v>
+      </c>
+      <c r="D8" s="36">
+        <v>0.11501</v>
+      </c>
+      <c r="E8" s="36">
         <f t="shared" si="0"/>
-        <v>5.5873696407879487</v>
+        <v>0.16073000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4">
-        <v>2.8218424101969872</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1.3440903823870221</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1.3058516801853999</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="B9" s="36">
+        <v>0.24352499999999999</v>
+      </c>
+      <c r="C9" s="36">
+        <v>0.115995</v>
+      </c>
+      <c r="D9" s="36">
+        <v>0.112695</v>
+      </c>
+      <c r="E9" s="36">
         <f t="shared" si="0"/>
-        <v>5.4717844727694089</v>
+        <v>0.15740499999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4">
-        <v>38.944669756662805</v>
-      </c>
-      <c r="C10" s="4">
-        <v>12.711993047508692</v>
-      </c>
-      <c r="D10" s="4">
-        <v>20.081633835457705</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="B10" s="36">
+        <v>3.3609249999999999</v>
+      </c>
+      <c r="C10" s="36">
+        <v>1.097045</v>
+      </c>
+      <c r="D10" s="36">
+        <v>1.7330449999999999</v>
+      </c>
+      <c r="E10" s="36">
         <f t="shared" si="0"/>
-        <v>71.738296639629198</v>
+        <v>2.0636716666666666</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4">
-        <v>0.88650057937427595</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.64316338354577052</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.61882966396292016</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="B11" s="36">
+        <v>7.6505000000000004E-2</v>
+      </c>
+      <c r="C11" s="36">
+        <v>5.5504999999999999E-2</v>
+      </c>
+      <c r="D11" s="36">
+        <v>5.3405000000000001E-2</v>
+      </c>
+      <c r="E11" s="36">
         <f t="shared" si="0"/>
-        <v>2.1484936268829666</v>
+        <v>6.1805000000000006E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4">
-        <v>16.462920046349943</v>
-      </c>
-      <c r="C12" s="4">
-        <v>11.827925840092702</v>
-      </c>
-      <c r="D12" s="4">
-        <v>11.851100811123986</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="B12" s="36">
+        <v>1.42075</v>
+      </c>
+      <c r="C12" s="36">
+        <v>1.02075</v>
+      </c>
+      <c r="D12" s="36">
+        <v>1.02275</v>
+      </c>
+      <c r="E12" s="36">
         <f t="shared" si="0"/>
-        <v>40.141946697566631</v>
+        <v>1.1547499999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4">
-        <v>1.6584009269988413</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1.2264194669756663</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1.2597914252607185</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="B13" s="36">
+        <v>0.14312</v>
+      </c>
+      <c r="C13" s="36">
+        <v>0.10584</v>
+      </c>
+      <c r="D13" s="36">
+        <v>0.10872</v>
+      </c>
+      <c r="E13" s="36">
         <f t="shared" si="0"/>
-        <v>4.1446118192352266</v>
+        <v>0.11922666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4">
-        <v>3.868250289687138</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1.4802433371958286</v>
-      </c>
-      <c r="D14" s="4">
-        <v>3.868250289687138</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="B14" s="36">
+        <v>0.33383000000000002</v>
+      </c>
+      <c r="C14" s="36">
+        <v>0.127745</v>
+      </c>
+      <c r="D14" s="36">
+        <v>0.33383000000000002</v>
+      </c>
+      <c r="E14" s="36">
         <f t="shared" si="0"/>
-        <v>9.2167439165701044</v>
+        <v>0.26513500000000001</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4">
-        <v>22.28899188876014</v>
-      </c>
-      <c r="C15" s="4">
-        <v>22.492931633835461</v>
-      </c>
-      <c r="D15" s="4">
-        <v>22.023870220162227</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="B15" s="36">
+        <v>1.92354</v>
+      </c>
+      <c r="C15" s="36">
+        <v>1.9411400000000001</v>
+      </c>
+      <c r="D15" s="36">
+        <v>1.90066</v>
+      </c>
+      <c r="E15" s="36">
         <f t="shared" si="0"/>
-        <v>66.805793742757828</v>
+        <v>1.92178</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4">
-        <v>29.137891077636159</v>
-      </c>
-      <c r="C16" s="4">
-        <v>30.118192352259562</v>
-      </c>
-      <c r="D16" s="4">
-        <v>29.822711471610663</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="B16" s="36">
+        <v>2.5146000000000002</v>
+      </c>
+      <c r="C16" s="36">
+        <v>2.5992000000000002</v>
+      </c>
+      <c r="D16" s="36">
+        <v>2.5737000000000001</v>
+      </c>
+      <c r="E16" s="36">
         <f t="shared" si="0"/>
-        <v>89.078794901506384</v>
+        <v>2.5625</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="4">
-        <v>3.6730011587485514</v>
-      </c>
-      <c r="C17" s="4">
-        <v>3.0083429895712634</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2.9860950173812282</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="B17" s="36">
+        <v>0.31697999999999998</v>
+      </c>
+      <c r="C17" s="36">
+        <v>0.25962000000000002</v>
+      </c>
+      <c r="D17" s="36">
+        <v>0.25769999999999998</v>
+      </c>
+      <c r="E17" s="36">
         <f t="shared" si="0"/>
-        <v>9.6674391657010421</v>
+        <v>0.27810000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4">
-        <v>2.8487833140208578</v>
-      </c>
-      <c r="C18" s="4">
-        <v>2.3964078794901504</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2.3556199304750871</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="B18" s="36">
+        <v>0.24585000000000001</v>
+      </c>
+      <c r="C18" s="36">
+        <v>0.20680999999999999</v>
+      </c>
+      <c r="D18" s="36">
+        <v>0.20329</v>
+      </c>
+      <c r="E18" s="36">
         <f t="shared" si="0"/>
-        <v>7.6008111239860954</v>
+        <v>0.21865000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4">
-        <v>2.9304750869061418</v>
-      </c>
-      <c r="C19" s="4">
-        <v>2.2369640787949017</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2.1859791425260719</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="B19" s="36">
+        <v>0.25290000000000001</v>
+      </c>
+      <c r="C19" s="36">
+        <v>0.19305</v>
+      </c>
+      <c r="D19" s="36">
+        <v>0.18865000000000001</v>
+      </c>
+      <c r="E19" s="36">
         <f t="shared" si="0"/>
-        <v>7.3534183082271163</v>
+        <v>0.21153333333333335</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="4">
-        <v>5.2913093858632676</v>
-      </c>
-      <c r="C20" s="4">
-        <v>5.28018539976825</v>
-      </c>
-      <c r="D20" s="4">
-        <v>5.3395133256083431</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="B20" s="36">
+        <v>0.45663999999999999</v>
+      </c>
+      <c r="C20" s="36">
+        <v>0.45567999999999997</v>
+      </c>
+      <c r="D20" s="36">
+        <v>0.46079999999999999</v>
+      </c>
+      <c r="E20" s="36">
         <f t="shared" si="0"/>
-        <v>15.911008111239862</v>
+        <v>0.45770666666666671</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4">
-        <v>101.08922363847046</v>
-      </c>
-      <c r="C21" s="4">
-        <v>78.702201622247969</v>
-      </c>
-      <c r="D21" s="4">
-        <v>77.033603707995368</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="B21" s="36">
+        <v>8.7240000000000002</v>
+      </c>
+      <c r="C21" s="36">
+        <v>6.7919999999999998</v>
+      </c>
+      <c r="D21" s="36">
+        <v>6.6479999999999997</v>
+      </c>
+      <c r="E21" s="36">
         <f t="shared" si="0"/>
-        <v>256.82502896871381</v>
+        <v>7.3880000000000008</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="4">
-        <v>48.308227114716104</v>
-      </c>
-      <c r="C22" s="4">
-        <v>39.398609501738122</v>
-      </c>
-      <c r="D22" s="4">
-        <v>37.830822711471612</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="B22" s="36">
+        <v>4.1689999999999996</v>
+      </c>
+      <c r="C22" s="36">
+        <v>3.4001000000000001</v>
+      </c>
+      <c r="D22" s="36">
+        <v>3.2648000000000001</v>
+      </c>
+      <c r="E22" s="36">
         <f t="shared" si="0"/>
-        <v>125.53765932792584</v>
+        <v>3.6113</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="4">
-        <v>27.104866743916574</v>
-      </c>
-      <c r="C23" s="4">
-        <v>20.578794901506374</v>
-      </c>
-      <c r="D23" s="4">
-        <v>19.839513325608344</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="B23" s="36">
+        <v>2.3391500000000001</v>
+      </c>
+      <c r="C23" s="36">
+        <v>1.7759499999999999</v>
+      </c>
+      <c r="D23" s="36">
+        <v>1.7121500000000001</v>
+      </c>
+      <c r="E23" s="36">
         <f t="shared" si="0"/>
-        <v>67.523174971031295</v>
+        <v>1.9424166666666667</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="4">
-        <v>12.416442641946698</v>
-      </c>
-      <c r="C24" s="4">
-        <v>11.96279258400927</v>
-      </c>
-      <c r="D24" s="4">
-        <v>11.945411355735805</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="B24" s="36">
+        <v>1.071539</v>
+      </c>
+      <c r="C24" s="36">
+        <v>1.032389</v>
+      </c>
+      <c r="D24" s="36">
+        <v>1.0308889999999999</v>
+      </c>
+      <c r="E24" s="36">
         <f t="shared" si="0"/>
-        <v>36.324646581691773</v>
+        <v>1.0449390000000001</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="4">
-        <v>51.282502896871378</v>
-      </c>
-      <c r="C25" s="4">
-        <v>31.951796060254924</v>
-      </c>
-      <c r="D25" s="4">
-        <v>36.468134414831987</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="B25" s="36">
+        <v>4.4256799999999998</v>
+      </c>
+      <c r="C25" s="36">
+        <v>2.7574399999999999</v>
+      </c>
+      <c r="D25" s="36">
+        <v>3.1472000000000002</v>
+      </c>
+      <c r="E25" s="36">
         <f t="shared" si="0"/>
-        <v>119.70243337195828</v>
+        <v>3.4434400000000003</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="4">
-        <v>123.18887601390497</v>
-      </c>
-      <c r="C26" s="4">
-        <v>25.520278099652373</v>
-      </c>
-      <c r="D26" s="4">
-        <v>25.833140208574743</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="B26" s="36">
+        <v>10.6312</v>
+      </c>
+      <c r="C26" s="36">
+        <v>2.2023999999999999</v>
+      </c>
+      <c r="D26" s="36">
+        <v>2.2294</v>
+      </c>
+      <c r="E26" s="36">
         <f t="shared" si="0"/>
-        <v>174.54229432213211</v>
+        <v>5.0209999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="4">
-        <v>13.066975666280419</v>
-      </c>
-      <c r="C27" s="4">
-        <v>8.8537659327925837</v>
-      </c>
-      <c r="D27" s="4">
-        <v>8.8120509849362705</v>
-      </c>
-      <c r="E27" s="4">
+      <c r="B27" s="36">
+        <v>1.12768</v>
+      </c>
+      <c r="C27" s="36">
+        <v>0.76407999999999998</v>
+      </c>
+      <c r="D27" s="36">
+        <v>0.76048000000000004</v>
+      </c>
+      <c r="E27" s="36">
         <f t="shared" si="0"/>
-        <v>30.732792584009275</v>
+        <v>0.88407999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4">
-        <v>3.609617612977984</v>
-      </c>
-      <c r="C28" s="4">
-        <v>3.0371958285052143</v>
-      </c>
-      <c r="D28" s="4">
-        <v>2.8494785631517958</v>
-      </c>
-      <c r="E28" s="4">
+      <c r="B28" s="36">
+        <v>0.31151000000000001</v>
+      </c>
+      <c r="C28" s="36">
+        <v>0.26211000000000001</v>
+      </c>
+      <c r="D28" s="36">
+        <v>0.24590999999999999</v>
+      </c>
+      <c r="E28" s="36">
         <f t="shared" si="0"/>
-        <v>9.496292004634995</v>
+        <v>0.27317666666666668</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="4">
-        <v>61.996523754345304</v>
-      </c>
-      <c r="C29" s="4">
-        <v>13.242178447276942</v>
-      </c>
-      <c r="D29" s="4">
-        <v>13.304750869061415</v>
-      </c>
-      <c r="E29" s="4">
+      <c r="B29" s="36">
+        <v>5.3502999999999998</v>
+      </c>
+      <c r="C29" s="36">
+        <v>1.1428</v>
+      </c>
+      <c r="D29" s="36">
+        <v>1.1482000000000001</v>
+      </c>
+      <c r="E29" s="36">
         <f t="shared" si="0"/>
-        <v>88.543453070683654</v>
+        <v>2.5470999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" s="4">
+        <f>AVERAGE(B2:B29)</f>
+        <v>3.3032124999999999</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" ref="C30:D30" si="1">AVERAGE(C2:C29)</f>
+        <v>2.1240126785714284</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1127200000000008</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:E29">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E29"/>
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5028,525 +5453,560 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>284</v>
+      <c r="D1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="32">
         <v>7.62</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="32">
         <v>3.81</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="32">
         <v>7.25</v>
       </c>
-      <c r="E2">
-        <f>B2+C2+D2</f>
-        <v>18.68</v>
+      <c r="E2" s="32">
+        <f>ROUND((B2+C2+D2)/3,1)</f>
+        <v>6.2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="32">
         <v>23.87</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="32">
         <v>12.24</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="32">
         <v>12.88</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E29" si="0">B3+C3+D3</f>
-        <v>48.99</v>
+      <c r="E3" s="32">
+        <f t="shared" ref="E3:E29" si="0">ROUND((B3+C3+D3)/3,1)</f>
+        <v>16.3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="32">
         <v>16.989999999999998</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="32">
         <v>7.65</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="32">
         <v>7.95</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="32">
         <f t="shared" si="0"/>
-        <v>32.590000000000003</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="32">
         <v>29.21</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="32">
         <v>7.12</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="32">
         <v>10.42</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="32">
         <f t="shared" si="0"/>
-        <v>46.75</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="32">
         <v>17.95</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="32">
         <v>10.41</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="32">
         <v>10.46</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="32">
         <f t="shared" si="0"/>
-        <v>38.82</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="32">
         <v>29.29</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="32">
         <v>22.16</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="32">
         <v>16.63</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="32">
         <f t="shared" si="0"/>
-        <v>68.08</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="32">
         <v>8.8000000000000007</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="32">
         <v>4.99</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="32">
         <v>4.62</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="32">
         <f t="shared" si="0"/>
-        <v>18.41</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="32">
         <v>62.98</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="32">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="32">
         <v>4.93</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="32">
         <f t="shared" si="0"/>
-        <v>73.009999999999991</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="32">
         <v>13.46</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="32">
         <v>10.02</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="32">
         <v>12.6</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="32">
         <f t="shared" si="0"/>
-        <v>36.08</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="32">
         <v>7.58</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="32">
         <v>4.38</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="32">
         <v>4.83</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="32">
         <f t="shared" si="0"/>
-        <v>16.79</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="32">
         <v>10.97</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="32">
         <v>6.37</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="32">
         <v>6.07</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="32">
         <f t="shared" si="0"/>
-        <v>23.41</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="32">
         <v>12.03</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="32">
         <v>5.14</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="32">
         <v>17.940000000000001</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="32">
         <f t="shared" si="0"/>
-        <v>35.11</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="32">
         <v>7.79</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="32">
         <v>4.66</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="32">
         <v>64.959999999999994</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="32">
         <f t="shared" si="0"/>
-        <v>77.41</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="32">
         <v>30.98</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="32">
         <v>31.99</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="32">
         <v>31.61</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="32">
         <f t="shared" si="0"/>
-        <v>94.58</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="32">
         <v>25.1</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="32">
         <v>14.99</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="32">
         <v>20.65</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="32">
         <f t="shared" si="0"/>
-        <v>60.74</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="32">
         <v>18.190000000000001</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="32">
         <v>20.14</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="32">
         <v>14.46</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="32">
         <f t="shared" si="0"/>
-        <v>52.79</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="32">
         <v>4.45</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="32">
         <v>2.4</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="32">
         <v>2.31</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="32">
         <f t="shared" si="0"/>
-        <v>9.16</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="32">
         <v>6.69</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="32">
         <v>5.97</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="32">
         <v>5.22</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="32">
         <f t="shared" si="0"/>
-        <v>17.88</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="32">
         <v>8.4499999999999993</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="32">
         <v>4.87</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="32">
         <v>6.49</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="32">
         <f t="shared" si="0"/>
-        <v>19.810000000000002</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="32">
         <v>23.1</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="32">
         <v>18.260000000000002</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="32">
         <v>12.11</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="32">
         <f t="shared" si="0"/>
-        <v>53.47</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="32">
         <v>15.97</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="32">
         <v>9.18</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="32">
         <v>9.07</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="32">
         <f t="shared" si="0"/>
-        <v>34.22</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="32">
         <v>13.84</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="32">
         <v>7.59</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="32">
         <v>9.0399999999999991</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="32">
         <f t="shared" si="0"/>
-        <v>30.47</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="32">
         <v>13.18</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="32">
         <v>6.21</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="32">
         <v>5.9</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="32">
         <f t="shared" si="0"/>
-        <v>25.29</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="32">
         <v>40.200000000000003</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="32">
         <v>12.87</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="32">
         <v>22.58</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="32">
         <f t="shared" si="0"/>
-        <v>75.650000000000006</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="32">
         <v>31.98</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="32">
         <v>9.83</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="32">
         <v>32.72</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="32">
         <f t="shared" si="0"/>
-        <v>74.53</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="32">
         <v>18.579999999999998</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="32">
         <v>10.5</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="32">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="32">
         <f t="shared" si="0"/>
-        <v>37.879999999999995</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="32">
         <v>11.91</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="32">
         <v>6.51</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="32">
         <v>5.36</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="32">
         <f t="shared" si="0"/>
-        <v>23.78</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="32">
         <v>34.090000000000003</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="32">
         <v>14.32</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="32">
         <v>22.27</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="32">
         <f t="shared" si="0"/>
-        <v>70.680000000000007</v>
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" s="31">
+        <f>AVERAGE(Таблица3[page1])</f>
+        <v>19.473214285714288</v>
+      </c>
+      <c r="C30" s="31">
+        <f>AVERAGE(Таблица3[page2])</f>
+        <v>9.9885714285714293</v>
+      </c>
+      <c r="D30" s="31">
+        <f>AVERAGE(Таблица3[page3])</f>
+        <v>13.933214285714287</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:E29">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -5555,509 +6015,516 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="4" width="50" customWidth="1"/>
-    <col min="5" max="5" width="5.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.90625" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>285</v>
+      <c r="D1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="E5" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="E6" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="E7" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="E8" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="E9" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="E10" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="E11" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="E12" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="E16" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="E17" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="E18" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="E20" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="E21" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="E22" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="E23" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+      <c r="E24" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="E25" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+      <c r="E26" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+      <c r="E27" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+      <c r="E28" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="28">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -6087,7 +6554,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -6598,7 +7065,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -7109,7 +7576,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -7598,7 +8065,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7619,7 +8086,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -8130,7 +8597,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
